--- a/media/CMS Machine Master.xlsx
+++ b/media/CMS Machine Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashawantatul.man\cms\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D160BF7-0561-4528-908C-AD3C67D9040F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FFD460-AA34-469F-9D5C-506627F81510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$L$639</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="2466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5919" uniqueCount="2749">
   <si>
     <t>Section</t>
   </si>
@@ -7424,6 +7424,855 @@
   </si>
   <si>
     <t>3000 KVA</t>
+  </si>
+  <si>
+    <t>EL-001</t>
+  </si>
+  <si>
+    <t>EL-002</t>
+  </si>
+  <si>
+    <t>EL-003</t>
+  </si>
+  <si>
+    <t>EL-004</t>
+  </si>
+  <si>
+    <t>EL-005</t>
+  </si>
+  <si>
+    <t>EL-006</t>
+  </si>
+  <si>
+    <t>EL-007</t>
+  </si>
+  <si>
+    <t>EL-008</t>
+  </si>
+  <si>
+    <t>EL-009</t>
+  </si>
+  <si>
+    <t>EL-010</t>
+  </si>
+  <si>
+    <t>EL-011</t>
+  </si>
+  <si>
+    <t>EL-012</t>
+  </si>
+  <si>
+    <t>EL-013</t>
+  </si>
+  <si>
+    <t>EL-014</t>
+  </si>
+  <si>
+    <t>EL-015</t>
+  </si>
+  <si>
+    <t>EL-016</t>
+  </si>
+  <si>
+    <t>EL-017</t>
+  </si>
+  <si>
+    <t>EL-018</t>
+  </si>
+  <si>
+    <t>EL-019</t>
+  </si>
+  <si>
+    <t>EL-020</t>
+  </si>
+  <si>
+    <t>EL-021</t>
+  </si>
+  <si>
+    <t>EL-022</t>
+  </si>
+  <si>
+    <t>EL-023</t>
+  </si>
+  <si>
+    <t>EL-024</t>
+  </si>
+  <si>
+    <t>EL-025</t>
+  </si>
+  <si>
+    <t>EL-026</t>
+  </si>
+  <si>
+    <t>EL-027</t>
+  </si>
+  <si>
+    <t>EL-028</t>
+  </si>
+  <si>
+    <t>EL-029</t>
+  </si>
+  <si>
+    <t>EL-030</t>
+  </si>
+  <si>
+    <t>EL-031</t>
+  </si>
+  <si>
+    <t>EL-032</t>
+  </si>
+  <si>
+    <t>EL-033</t>
+  </si>
+  <si>
+    <t>EL-034</t>
+  </si>
+  <si>
+    <t>EL-035</t>
+  </si>
+  <si>
+    <t>EL-036</t>
+  </si>
+  <si>
+    <t>EL-037</t>
+  </si>
+  <si>
+    <t>EL-038</t>
+  </si>
+  <si>
+    <t>EL-039</t>
+  </si>
+  <si>
+    <t>EL-040</t>
+  </si>
+  <si>
+    <t>EL-041</t>
+  </si>
+  <si>
+    <t>EL-042</t>
+  </si>
+  <si>
+    <t>EL-043</t>
+  </si>
+  <si>
+    <t>EL-044</t>
+  </si>
+  <si>
+    <t>EL-045</t>
+  </si>
+  <si>
+    <t>EL-046</t>
+  </si>
+  <si>
+    <t>EL-047</t>
+  </si>
+  <si>
+    <t>EL-048</t>
+  </si>
+  <si>
+    <t>EL-049</t>
+  </si>
+  <si>
+    <t>EL-050</t>
+  </si>
+  <si>
+    <t>EL-051</t>
+  </si>
+  <si>
+    <t>EL-052</t>
+  </si>
+  <si>
+    <t>EL-053</t>
+  </si>
+  <si>
+    <t>EL-054</t>
+  </si>
+  <si>
+    <t>EL-055</t>
+  </si>
+  <si>
+    <t>EL-056</t>
+  </si>
+  <si>
+    <t>EL-057</t>
+  </si>
+  <si>
+    <t>EL-058</t>
+  </si>
+  <si>
+    <t>EL-059</t>
+  </si>
+  <si>
+    <t>EL-060</t>
+  </si>
+  <si>
+    <t>EL-061</t>
+  </si>
+  <si>
+    <t>EL-062</t>
+  </si>
+  <si>
+    <t>EL-063</t>
+  </si>
+  <si>
+    <t>EL-064</t>
+  </si>
+  <si>
+    <t>EL-065</t>
+  </si>
+  <si>
+    <t>EL-066</t>
+  </si>
+  <si>
+    <t>EL-067</t>
+  </si>
+  <si>
+    <t>EL-068</t>
+  </si>
+  <si>
+    <t>EL-069</t>
+  </si>
+  <si>
+    <t>EL-070</t>
+  </si>
+  <si>
+    <t>EL-071</t>
+  </si>
+  <si>
+    <t>EL-072</t>
+  </si>
+  <si>
+    <t>EL-073</t>
+  </si>
+  <si>
+    <t>EL-074</t>
+  </si>
+  <si>
+    <t>EL-075</t>
+  </si>
+  <si>
+    <t>EL-076</t>
+  </si>
+  <si>
+    <t>EL-077</t>
+  </si>
+  <si>
+    <t>EL-078</t>
+  </si>
+  <si>
+    <t>EL-079</t>
+  </si>
+  <si>
+    <t>EL-080</t>
+  </si>
+  <si>
+    <t>EL-081</t>
+  </si>
+  <si>
+    <t>EL-082</t>
+  </si>
+  <si>
+    <t>EL-083</t>
+  </si>
+  <si>
+    <t>EL-084</t>
+  </si>
+  <si>
+    <t>EL-085</t>
+  </si>
+  <si>
+    <t>EL-086</t>
+  </si>
+  <si>
+    <t>EL-087</t>
+  </si>
+  <si>
+    <t>EL-088</t>
+  </si>
+  <si>
+    <t>EL-089</t>
+  </si>
+  <si>
+    <t>EL-090</t>
+  </si>
+  <si>
+    <t>EL-091</t>
+  </si>
+  <si>
+    <t>EL-092</t>
+  </si>
+  <si>
+    <t>EL-093</t>
+  </si>
+  <si>
+    <t>ES-01</t>
+  </si>
+  <si>
+    <t>ES-02</t>
+  </si>
+  <si>
+    <t>ES-03</t>
+  </si>
+  <si>
+    <t>ES-04</t>
+  </si>
+  <si>
+    <t>ES-05</t>
+  </si>
+  <si>
+    <t>ES-06</t>
+  </si>
+  <si>
+    <t>ES-07</t>
+  </si>
+  <si>
+    <t>ES-08</t>
+  </si>
+  <si>
+    <t>ES-09</t>
+  </si>
+  <si>
+    <t>ES-10</t>
+  </si>
+  <si>
+    <t>ES-11</t>
+  </si>
+  <si>
+    <t>ES-12</t>
+  </si>
+  <si>
+    <t>ES-13</t>
+  </si>
+  <si>
+    <t>ES-14</t>
+  </si>
+  <si>
+    <t>ES-15</t>
+  </si>
+  <si>
+    <t>ES-16</t>
+  </si>
+  <si>
+    <t>ES-17</t>
+  </si>
+  <si>
+    <t>FE-016</t>
+  </si>
+  <si>
+    <t>FE-017</t>
+  </si>
+  <si>
+    <t>FE-018</t>
+  </si>
+  <si>
+    <t>FE-019</t>
+  </si>
+  <si>
+    <t>FE-020</t>
+  </si>
+  <si>
+    <t>FE-021</t>
+  </si>
+  <si>
+    <t>FE-022</t>
+  </si>
+  <si>
+    <t>FE-023</t>
+  </si>
+  <si>
+    <t>FE-024</t>
+  </si>
+  <si>
+    <t>FE-025</t>
+  </si>
+  <si>
+    <t>FE-026</t>
+  </si>
+  <si>
+    <t>FE-027</t>
+  </si>
+  <si>
+    <t>FE-028</t>
+  </si>
+  <si>
+    <t>FE-029</t>
+  </si>
+  <si>
+    <t>FE-030</t>
+  </si>
+  <si>
+    <t>FE-031</t>
+  </si>
+  <si>
+    <t>FE-032</t>
+  </si>
+  <si>
+    <t>FE-033</t>
+  </si>
+  <si>
+    <t>FE-034</t>
+  </si>
+  <si>
+    <t>FE-035</t>
+  </si>
+  <si>
+    <t>FE-036</t>
+  </si>
+  <si>
+    <t>FE-037</t>
+  </si>
+  <si>
+    <t>FE-038</t>
+  </si>
+  <si>
+    <t>FE-039</t>
+  </si>
+  <si>
+    <t>FE-040</t>
+  </si>
+  <si>
+    <t>FE-041</t>
+  </si>
+  <si>
+    <t>FE-042</t>
+  </si>
+  <si>
+    <t>FE-043</t>
+  </si>
+  <si>
+    <t>FE-044</t>
+  </si>
+  <si>
+    <t>FE-045</t>
+  </si>
+  <si>
+    <t>FE-046</t>
+  </si>
+  <si>
+    <t>FE-047</t>
+  </si>
+  <si>
+    <t>FE-048</t>
+  </si>
+  <si>
+    <t>FE-049</t>
+  </si>
+  <si>
+    <t>FE-050</t>
+  </si>
+  <si>
+    <t>FE-051</t>
+  </si>
+  <si>
+    <t>FE-052</t>
+  </si>
+  <si>
+    <t>FE-053</t>
+  </si>
+  <si>
+    <t>FE-054</t>
+  </si>
+  <si>
+    <t>FE-055</t>
+  </si>
+  <si>
+    <t>FE-056</t>
+  </si>
+  <si>
+    <t>FE-057</t>
+  </si>
+  <si>
+    <t>FE-058</t>
+  </si>
+  <si>
+    <t>FE-059</t>
+  </si>
+  <si>
+    <t>FE-060</t>
+  </si>
+  <si>
+    <t>FE-061</t>
+  </si>
+  <si>
+    <t>FE-062</t>
+  </si>
+  <si>
+    <t>FE-063</t>
+  </si>
+  <si>
+    <t>FE-064</t>
+  </si>
+  <si>
+    <t>FE-065</t>
+  </si>
+  <si>
+    <t>FE-066</t>
+  </si>
+  <si>
+    <t>FE-067</t>
+  </si>
+  <si>
+    <t>FE-068</t>
+  </si>
+  <si>
+    <t>FE-069</t>
+  </si>
+  <si>
+    <t>FE-070</t>
+  </si>
+  <si>
+    <t>FE-071</t>
+  </si>
+  <si>
+    <t>FE-072</t>
+  </si>
+  <si>
+    <t>FE-073</t>
+  </si>
+  <si>
+    <t>FE-074</t>
+  </si>
+  <si>
+    <t>FE-075</t>
+  </si>
+  <si>
+    <t>FE-076</t>
+  </si>
+  <si>
+    <t>FE-077</t>
+  </si>
+  <si>
+    <t>FE-078</t>
+  </si>
+  <si>
+    <t>FE-079</t>
+  </si>
+  <si>
+    <t>FE-080</t>
+  </si>
+  <si>
+    <t>FE-081</t>
+  </si>
+  <si>
+    <t>FE-082</t>
+  </si>
+  <si>
+    <t>FE-083</t>
+  </si>
+  <si>
+    <t>FE-084</t>
+  </si>
+  <si>
+    <t>FE-085</t>
+  </si>
+  <si>
+    <t>FE-086</t>
+  </si>
+  <si>
+    <t>FE-087</t>
+  </si>
+  <si>
+    <t>FE-088</t>
+  </si>
+  <si>
+    <t>FE-089</t>
+  </si>
+  <si>
+    <t>FE-090</t>
+  </si>
+  <si>
+    <t>FE-091</t>
+  </si>
+  <si>
+    <t>FE-092</t>
+  </si>
+  <si>
+    <t>FE-093</t>
+  </si>
+  <si>
+    <t>FE-094</t>
+  </si>
+  <si>
+    <t>FE-095</t>
+  </si>
+  <si>
+    <t>FE-096</t>
+  </si>
+  <si>
+    <t>FE-097</t>
+  </si>
+  <si>
+    <t>FE-098</t>
+  </si>
+  <si>
+    <t>FE-099</t>
+  </si>
+  <si>
+    <t>FE-100</t>
+  </si>
+  <si>
+    <t>FE-101</t>
+  </si>
+  <si>
+    <t>FE-102</t>
+  </si>
+  <si>
+    <t>FE-103</t>
+  </si>
+  <si>
+    <t>FE-104</t>
+  </si>
+  <si>
+    <t>FE-105</t>
+  </si>
+  <si>
+    <t>FE-106</t>
+  </si>
+  <si>
+    <t>FE-107</t>
+  </si>
+  <si>
+    <t>FE-108</t>
+  </si>
+  <si>
+    <t>FE-109</t>
+  </si>
+  <si>
+    <t>FE-110</t>
+  </si>
+  <si>
+    <t>FE-111</t>
+  </si>
+  <si>
+    <t>FE-112</t>
+  </si>
+  <si>
+    <t>FE-113</t>
+  </si>
+  <si>
+    <t>FE-114</t>
+  </si>
+  <si>
+    <t>FE-115</t>
+  </si>
+  <si>
+    <t>FE-116</t>
+  </si>
+  <si>
+    <t>FE-117</t>
+  </si>
+  <si>
+    <t>FE-118</t>
+  </si>
+  <si>
+    <t>FE-119</t>
+  </si>
+  <si>
+    <t>FE-120</t>
+  </si>
+  <si>
+    <t>FE-121</t>
+  </si>
+  <si>
+    <t>FE-122</t>
+  </si>
+  <si>
+    <t>FE-123</t>
+  </si>
+  <si>
+    <t>FE-124</t>
+  </si>
+  <si>
+    <t>FE-125</t>
+  </si>
+  <si>
+    <t>FE-126</t>
+  </si>
+  <si>
+    <t>FH-01</t>
+  </si>
+  <si>
+    <t>FH-02</t>
+  </si>
+  <si>
+    <t>FH-03</t>
+  </si>
+  <si>
+    <t>FH-04</t>
+  </si>
+  <si>
+    <t>FH-05</t>
+  </si>
+  <si>
+    <t>FH-06</t>
+  </si>
+  <si>
+    <t>FH-07</t>
+  </si>
+  <si>
+    <t>FH-08</t>
+  </si>
+  <si>
+    <t>FH-09</t>
+  </si>
+  <si>
+    <t>FH-10</t>
+  </si>
+  <si>
+    <t>FH-11</t>
+  </si>
+  <si>
+    <t>FH-12</t>
+  </si>
+  <si>
+    <t>FH-13</t>
+  </si>
+  <si>
+    <t>FH-14</t>
+  </si>
+  <si>
+    <t>FH-15</t>
+  </si>
+  <si>
+    <t>FH-16</t>
+  </si>
+  <si>
+    <t>FP-01</t>
+  </si>
+  <si>
+    <t>LIFT-1</t>
+  </si>
+  <si>
+    <t>LIFT-2</t>
+  </si>
+  <si>
+    <t>LIFT-3</t>
+  </si>
+  <si>
+    <t>LIFT-4</t>
+  </si>
+  <si>
+    <t>LIFT-5</t>
+  </si>
+  <si>
+    <t>Emergency Light</t>
+  </si>
+  <si>
+    <t>Exit Sign</t>
+  </si>
+  <si>
+    <t>Fire Extinguisher</t>
+  </si>
+  <si>
+    <t>Fire Hose</t>
+  </si>
+  <si>
+    <t>Fire Pump</t>
+  </si>
+  <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>EM3640</t>
+  </si>
+  <si>
+    <t>W-VF</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>FAER</t>
+  </si>
+  <si>
+    <t>CKD-MD</t>
+  </si>
+  <si>
+    <t>H97363</t>
+  </si>
+  <si>
+    <t>Passenger Lift 630 Kg.</t>
+  </si>
+  <si>
+    <t>Freight Lift 2000 Kg.</t>
+  </si>
+  <si>
+    <t>Semi-Passenger Lift</t>
+  </si>
+  <si>
+    <t>Freight Lift  2500 Kg.</t>
+  </si>
+  <si>
+    <t>Freight Lift  2000 Kg.</t>
+  </si>
+  <si>
+    <t>BF2000</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Dry Chemical</t>
+  </si>
+  <si>
+    <t>Foam</t>
+  </si>
+  <si>
+    <t>F1-2</t>
+  </si>
+  <si>
+    <t>F6-2</t>
+  </si>
+  <si>
+    <t>F6-1</t>
+  </si>
+  <si>
+    <t>F10-1</t>
+  </si>
+  <si>
+    <t>F1-1</t>
+  </si>
+  <si>
+    <t>F1-UG</t>
+  </si>
+  <si>
+    <t>F4-1</t>
+  </si>
+  <si>
+    <t>F15-UG</t>
+  </si>
+  <si>
+    <t>F15-2</t>
+  </si>
+  <si>
+    <t>F15-3</t>
+  </si>
+  <si>
+    <t>F15-4</t>
+  </si>
+  <si>
+    <t>F9-1</t>
+  </si>
+  <si>
+    <t>F9-2</t>
+  </si>
+  <si>
+    <t>F6-UG</t>
+  </si>
+  <si>
+    <t>F7-1</t>
+  </si>
+  <si>
+    <t>F8-1</t>
+  </si>
+  <si>
+    <t>F5-1</t>
+  </si>
+  <si>
+    <t>F5-2</t>
+  </si>
+  <si>
+    <t>F15-1</t>
   </si>
 </sst>
 </file>
@@ -7483,14 +8332,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7766,15 +8628,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L639"/>
+  <dimension ref="A1:L886"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A854" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I887" sqref="I887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="30.7109375" style="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="98.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7787,10 +8660,10 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -7822,7 +8695,7 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>402000203</v>
       </c>
       <c r="E2" t="s">
@@ -7860,7 +8733,7 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>402000020</v>
       </c>
       <c r="E3" t="s">
@@ -7892,7 +8765,7 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>402000204</v>
       </c>
       <c r="E4" t="s">
@@ -7927,7 +8800,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>402000274</v>
       </c>
       <c r="E5" t="s">
@@ -7962,7 +8835,7 @@
       <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>402000176</v>
       </c>
       <c r="E6" t="s">
@@ -7994,7 +8867,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>402000273</v>
       </c>
       <c r="E7" t="s">
@@ -8026,7 +8899,7 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>402000178</v>
       </c>
       <c r="E8" t="s">
@@ -8061,7 +8934,7 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>402000272</v>
       </c>
       <c r="E9" t="s">
@@ -8093,7 +8966,7 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>402000180</v>
       </c>
       <c r="E10" t="s">
@@ -8128,7 +9001,7 @@
       <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>402000027</v>
       </c>
       <c r="E11" t="s">
@@ -8163,7 +9036,7 @@
       <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>402000028</v>
       </c>
       <c r="E12" t="s">
@@ -8198,7 +9071,7 @@
       <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>402000051</v>
       </c>
       <c r="E13" t="s">
@@ -8233,7 +9106,7 @@
       <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>402000076</v>
       </c>
       <c r="E14" t="s">
@@ -8268,7 +9141,7 @@
       <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>402000090</v>
       </c>
       <c r="E15" t="s">
@@ -8306,7 +9179,7 @@
       <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>402000133</v>
       </c>
       <c r="E16" t="s">
@@ -8344,7 +9217,7 @@
       <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>402000140</v>
       </c>
       <c r="E17" t="s">
@@ -8379,7 +9252,7 @@
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>402000190</v>
       </c>
       <c r="E18" t="s">
@@ -8414,7 +9287,7 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>402000207</v>
       </c>
       <c r="E19" t="s">
@@ -8452,7 +9325,7 @@
       <c r="C20" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>402000049</v>
       </c>
       <c r="E20" t="s">
@@ -8487,7 +9360,7 @@
       <c r="C21" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>402000051</v>
       </c>
       <c r="E21" t="s">
@@ -8525,7 +9398,7 @@
       <c r="C22" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <v>402000052</v>
       </c>
       <c r="E22" t="s">
@@ -8560,7 +9433,7 @@
       <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <v>402000053</v>
       </c>
       <c r="E23" t="s">
@@ -8592,7 +9465,7 @@
       <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>402000054</v>
       </c>
       <c r="E24" t="s">
@@ -8630,7 +9503,7 @@
       <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
         <v>402000055</v>
       </c>
       <c r="E25" t="s">
@@ -8665,7 +9538,7 @@
       <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>402000192</v>
       </c>
       <c r="E26" t="s">
@@ -8700,7 +9573,7 @@
       <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="6">
         <v>402000191</v>
       </c>
       <c r="E27" t="s">
@@ -8735,7 +9608,7 @@
       <c r="B28" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>402000379</v>
       </c>
       <c r="E28" t="s">
@@ -8767,7 +9640,7 @@
       <c r="B29" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <v>402000380</v>
       </c>
       <c r="E29" t="s">
@@ -8802,7 +9675,7 @@
       <c r="C30" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>402000236</v>
       </c>
       <c r="E30" t="s">
@@ -8837,7 +9710,7 @@
       <c r="B31" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>402000150</v>
       </c>
       <c r="E31" t="s">
@@ -8875,7 +9748,7 @@
       <c r="C32" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <v>402000101</v>
       </c>
       <c r="E32" t="s">
@@ -8910,7 +9783,7 @@
       <c r="B33" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
         <v>402000175</v>
       </c>
       <c r="E33" t="s">
@@ -8948,7 +9821,7 @@
       <c r="C34" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="6">
         <v>402000021</v>
       </c>
       <c r="E34" t="s">
@@ -8983,7 +9856,7 @@
       <c r="C35" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
         <v>402000270</v>
       </c>
       <c r="E35" t="s">
@@ -9021,7 +9894,7 @@
       <c r="C36" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="6">
         <v>402000130</v>
       </c>
       <c r="E36" t="s">
@@ -9059,7 +9932,7 @@
       <c r="C37" t="s">
         <v>199</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="7" t="s">
         <v>201</v>
       </c>
       <c r="E37" t="s">
@@ -9097,7 +9970,7 @@
       <c r="C38" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
         <v>402000040</v>
       </c>
       <c r="E38" t="s">
@@ -9167,7 +10040,7 @@
       <c r="C40" t="s">
         <v>222</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="6">
         <v>402000080</v>
       </c>
       <c r="E40" t="s">
@@ -9202,7 +10075,7 @@
       <c r="C41" t="s">
         <v>228</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>230</v>
       </c>
       <c r="E41" t="s">
@@ -9237,7 +10110,7 @@
       <c r="B42" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
         <v>402000045</v>
       </c>
       <c r="E42" t="s">
@@ -9269,7 +10142,7 @@
       <c r="B43" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <v>402000046</v>
       </c>
       <c r="E43" t="s">
@@ -9304,7 +10177,7 @@
       <c r="C44" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
         <v>402000001</v>
       </c>
       <c r="E44" t="s">
@@ -9339,7 +10212,7 @@
       <c r="C45" t="s">
         <v>251</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
         <v>402000012</v>
       </c>
       <c r="E45" t="s">
@@ -9374,7 +10247,7 @@
       <c r="C46" t="s">
         <v>257</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
         <v>402000035</v>
       </c>
       <c r="E46" t="s">
@@ -9409,7 +10282,7 @@
       <c r="C47" t="s">
         <v>262</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="6">
         <v>402000284</v>
       </c>
       <c r="E47" t="s">
@@ -9444,7 +10317,7 @@
       <c r="C48" t="s">
         <v>265</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="6">
         <v>402000321</v>
       </c>
       <c r="E48" t="s">
@@ -9482,7 +10355,7 @@
       <c r="C49" t="s">
         <v>270</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="6">
         <v>402000323</v>
       </c>
       <c r="E49" t="s">
@@ -9520,7 +10393,7 @@
       <c r="C50" t="s">
         <v>274</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="6">
         <v>402000088</v>
       </c>
       <c r="E50" t="s">
@@ -9558,7 +10431,7 @@
       <c r="C51" t="s">
         <v>282</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="6">
         <v>402000104</v>
       </c>
       <c r="E51" t="s">
@@ -9596,7 +10469,7 @@
       <c r="C52" t="s">
         <v>288</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="6">
         <v>402000103</v>
       </c>
       <c r="E52" t="s">
@@ -9631,7 +10504,7 @@
       <c r="C53" t="s">
         <v>291</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="6">
         <v>402000126</v>
       </c>
       <c r="E53" t="s">
@@ -9666,7 +10539,7 @@
       <c r="C54" t="s">
         <v>294</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="6">
         <v>402000127</v>
       </c>
       <c r="E54" t="s">
@@ -9704,7 +10577,7 @@
       <c r="C55" t="s">
         <v>299</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="6">
         <v>402000168</v>
       </c>
       <c r="E55" t="s">
@@ -9739,7 +10612,7 @@
       <c r="B56" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
         <v>402000167</v>
       </c>
       <c r="E56" t="s">
@@ -9777,7 +10650,7 @@
       <c r="C57" t="s">
         <v>310</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="6">
         <v>402000201</v>
       </c>
       <c r="E57" t="s">
@@ -9812,7 +10685,7 @@
       <c r="B58" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="6">
         <v>402000202</v>
       </c>
       <c r="E58" t="s">
@@ -9844,7 +10717,7 @@
       <c r="B59" t="s">
         <v>168</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="6">
         <v>402000214</v>
       </c>
       <c r="E59" t="s">
@@ -9876,7 +10749,7 @@
       <c r="B60" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="6">
         <v>402000262</v>
       </c>
       <c r="E60" t="s">
@@ -9908,7 +10781,7 @@
       <c r="B61" t="s">
         <v>176</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="7">
         <v>402000557</v>
       </c>
       <c r="E61" t="s">
@@ -9940,7 +10813,7 @@
       <c r="B62" t="s">
         <v>176</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="7">
         <v>402000558</v>
       </c>
       <c r="E62" t="s">
@@ -9972,7 +10845,7 @@
       <c r="B63" t="s">
         <v>168</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="7">
         <v>402000559</v>
       </c>
       <c r="E63" t="s">
@@ -10004,7 +10877,7 @@
       <c r="B64" t="s">
         <v>168</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="7">
         <v>402000560</v>
       </c>
       <c r="E64" t="s">
@@ -10039,7 +10912,7 @@
       <c r="C65" t="s">
         <v>345</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="6">
         <v>402000031</v>
       </c>
       <c r="E65" t="s">
@@ -10074,7 +10947,7 @@
       <c r="C66" t="s">
         <v>352</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="6">
         <v>402000227</v>
       </c>
       <c r="E66" t="s">
@@ -10112,7 +10985,7 @@
       <c r="C67" t="s">
         <v>358</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="6">
         <v>402000033</v>
       </c>
       <c r="E67" t="s">
@@ -10150,7 +11023,7 @@
       <c r="C68" t="s">
         <v>365</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="6">
         <v>402000078</v>
       </c>
       <c r="E68" t="s">
@@ -10185,7 +11058,7 @@
       <c r="C69" t="s">
         <v>371</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="6">
         <v>402000019</v>
       </c>
       <c r="E69" t="s">
@@ -10223,7 +11096,7 @@
       <c r="C70" t="s">
         <v>378</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="6">
         <v>402000029</v>
       </c>
       <c r="E70" t="s">
@@ -10255,7 +11128,7 @@
       <c r="B71" t="s">
         <v>168</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="6">
         <v>402000183</v>
       </c>
       <c r="E71" t="s">
@@ -10293,7 +11166,7 @@
       <c r="C72" t="s">
         <v>387</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="6">
         <v>402000322</v>
       </c>
       <c r="E72" t="s">
@@ -10331,7 +11204,7 @@
       <c r="C73" t="s">
         <v>394</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="6">
         <v>402000116</v>
       </c>
       <c r="E73" t="s">
@@ -10369,7 +11242,7 @@
       <c r="C74" t="s">
         <v>400</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="6">
         <v>402000109</v>
       </c>
       <c r="E74" t="s">
@@ -10404,7 +11277,7 @@
       <c r="B75" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="6">
         <v>402000184</v>
       </c>
       <c r="E75" t="s">
@@ -10442,7 +11315,7 @@
       <c r="C76" t="s">
         <v>411</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="6">
         <v>402000300</v>
       </c>
       <c r="E76" t="s">
@@ -10477,7 +11350,7 @@
       <c r="B77" t="s">
         <v>344</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="7">
         <v>402000563</v>
       </c>
       <c r="E77">
@@ -10509,7 +11382,7 @@
       <c r="B78" t="s">
         <v>344</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="6">
         <v>402000239</v>
       </c>
       <c r="E78" t="s">
@@ -10541,7 +11414,7 @@
       <c r="B79" t="s">
         <v>344</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="6">
         <v>402000240</v>
       </c>
       <c r="E79" t="s">
@@ -10573,7 +11446,7 @@
       <c r="B80" t="s">
         <v>344</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="6">
         <v>402000241</v>
       </c>
       <c r="E80" t="s">
@@ -10634,7 +11507,7 @@
       <c r="B82" t="s">
         <v>438</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
         <v>402000069</v>
       </c>
       <c r="E82" t="s">
@@ -10669,7 +11542,7 @@
       <c r="C83" t="s">
         <v>445</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="6">
         <v>402000261</v>
       </c>
       <c r="E83" t="s">
@@ -10704,7 +11577,7 @@
       <c r="C84" t="s">
         <v>452</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="6">
         <v>402000081</v>
       </c>
       <c r="E84" t="s">
@@ -10739,7 +11612,7 @@
       <c r="C85" t="s">
         <v>457</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="6">
         <v>402000100</v>
       </c>
       <c r="E85" t="s">
@@ -10777,7 +11650,7 @@
       <c r="C86" t="s">
         <v>463</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="6">
         <v>402000113</v>
       </c>
       <c r="E86" t="s">
@@ -10812,7 +11685,7 @@
       <c r="C87" t="s">
         <v>469</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="6">
         <v>402000114</v>
       </c>
       <c r="E87" t="s">
@@ -10847,7 +11720,7 @@
       <c r="C88" t="s">
         <v>472</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="6">
         <v>402000112</v>
       </c>
       <c r="E88" t="s">
@@ -10885,7 +11758,7 @@
       <c r="C89" t="s">
         <v>477</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="6">
         <v>402000129</v>
       </c>
       <c r="E89" t="s">
@@ -10920,7 +11793,7 @@
       <c r="B90" t="s">
         <v>438</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="6">
         <v>402000217</v>
       </c>
       <c r="E90" t="s">
@@ -10955,7 +11828,7 @@
       <c r="B91" t="s">
         <v>438</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="6">
         <v>402000218</v>
       </c>
       <c r="E91" t="s">
@@ -10990,7 +11863,7 @@
       <c r="B92" t="s">
         <v>438</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="6">
         <v>402000219</v>
       </c>
       <c r="E92" t="s">
@@ -11025,7 +11898,7 @@
       <c r="B93" t="s">
         <v>438</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="6">
         <v>402000220</v>
       </c>
       <c r="E93" t="s">
@@ -11060,7 +11933,7 @@
       <c r="B94" t="s">
         <v>490</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="6">
         <v>402000209</v>
       </c>
       <c r="E94" t="s">
@@ -11095,7 +11968,7 @@
       <c r="B95" t="s">
         <v>490</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="6">
         <v>402000210</v>
       </c>
       <c r="E95" t="s">
@@ -11133,7 +12006,7 @@
       <c r="C96" t="s">
         <v>499</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="6">
         <v>402000181</v>
       </c>
       <c r="E96" t="s">
@@ -11171,7 +12044,7 @@
       <c r="C97" t="s">
         <v>505</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="6">
         <v>402000091</v>
       </c>
       <c r="E97" t="s">
@@ -11206,7 +12079,7 @@
       <c r="B98" t="s">
         <v>490</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="6">
         <v>402000093</v>
       </c>
       <c r="E98" t="s">
@@ -11241,7 +12114,7 @@
       <c r="B99" t="s">
         <v>490</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="6">
         <v>402000211</v>
       </c>
       <c r="E99" t="s">
@@ -11276,7 +12149,7 @@
       <c r="B100" t="s">
         <v>490</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="6">
         <v>402000096</v>
       </c>
       <c r="E100" t="s">
@@ -11311,7 +12184,7 @@
       <c r="C101" t="s">
         <v>524</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="6">
         <v>402000013</v>
       </c>
       <c r="E101" t="s">
@@ -11346,7 +12219,7 @@
       <c r="C102" t="s">
         <v>529</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="6">
         <v>402000024</v>
       </c>
       <c r="E102" t="s">
@@ -11381,7 +12254,7 @@
       <c r="C103" t="s">
         <v>534</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="6">
         <v>402000026</v>
       </c>
       <c r="E103" t="s">
@@ -11416,7 +12289,7 @@
       <c r="B104" t="s">
         <v>490</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="6">
         <v>402000245</v>
       </c>
       <c r="E104" t="s">
@@ -11454,7 +12327,7 @@
       <c r="C105" t="s">
         <v>544</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="6">
         <v>402000089</v>
       </c>
       <c r="E105" t="s">
@@ -11492,7 +12365,7 @@
       <c r="C106" t="s">
         <v>547</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="6">
         <v>402000095</v>
       </c>
       <c r="E106" t="s">
@@ -11530,7 +12403,7 @@
       <c r="C107" t="s">
         <v>550</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="6">
         <v>402000099</v>
       </c>
       <c r="E107" t="s">
@@ -11568,7 +12441,7 @@
       <c r="C108" t="s">
         <v>555</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="6">
         <v>402000115</v>
       </c>
       <c r="E108" t="s">
@@ -11606,7 +12479,7 @@
       <c r="C109" t="s">
         <v>558</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="6">
         <v>402000132</v>
       </c>
       <c r="E109" t="s">
@@ -11644,7 +12517,7 @@
       <c r="C110" t="s">
         <v>561</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="6">
         <v>402000131</v>
       </c>
       <c r="E110" t="s">
@@ -11699,7 +12572,7 @@
       <c r="B112" t="s">
         <v>490</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="6">
         <v>402000267</v>
       </c>
       <c r="E112" t="s">
@@ -11731,7 +12604,7 @@
       <c r="B113" t="s">
         <v>490</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="6">
         <v>402000264</v>
       </c>
       <c r="E113" t="s">
@@ -11763,7 +12636,7 @@
       <c r="B114" t="s">
         <v>490</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="6">
         <v>402000265</v>
       </c>
       <c r="E114" t="s">
@@ -11795,7 +12668,7 @@
       <c r="B115" t="s">
         <v>490</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="6">
         <v>402000266</v>
       </c>
       <c r="E115" t="s">
@@ -11827,7 +12700,7 @@
       <c r="B116" t="s">
         <v>490</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="6">
         <v>402000263</v>
       </c>
       <c r="E116" t="s">
@@ -11862,7 +12735,7 @@
       <c r="B117" t="s">
         <v>490</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="6">
         <v>402000282</v>
       </c>
       <c r="F117" t="s">
@@ -11885,7 +12758,7 @@
       <c r="B118" t="s">
         <v>579</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="6">
         <v>402000098</v>
       </c>
       <c r="E118" t="s">
@@ -11920,7 +12793,7 @@
       <c r="C119" t="s">
         <v>585</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="6">
         <v>402000017</v>
       </c>
       <c r="E119" t="s">
@@ -11958,7 +12831,7 @@
       <c r="C120" t="s">
         <v>589</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="6">
         <v>402000018</v>
       </c>
       <c r="E120" t="s">
@@ -11996,7 +12869,7 @@
       <c r="C121" t="s">
         <v>592</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="6">
         <v>402000072</v>
       </c>
       <c r="E121" t="s">
@@ -12034,7 +12907,7 @@
       <c r="C122" t="s">
         <v>596</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="6">
         <v>402000099</v>
       </c>
       <c r="E122" t="s">
@@ -12069,7 +12942,7 @@
       <c r="B123" t="s">
         <v>595</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="6">
         <v>402000279</v>
       </c>
       <c r="E123" t="s">
@@ -12104,7 +12977,7 @@
       <c r="B124" t="s">
         <v>595</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="6">
         <v>402000102</v>
       </c>
       <c r="E124" t="s">
@@ -12139,7 +13012,7 @@
       <c r="C125" t="s">
         <v>616</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="6">
         <v>402000103</v>
       </c>
       <c r="E125" t="s">
@@ -12174,7 +13047,7 @@
       <c r="C126" t="s">
         <v>623</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="6">
         <v>402000117</v>
       </c>
       <c r="E126" t="s">
@@ -12212,7 +13085,7 @@
       <c r="C127" t="s">
         <v>630</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="7" t="s">
         <v>632</v>
       </c>
       <c r="E127" t="s">
@@ -12247,7 +13120,7 @@
       <c r="C128" t="s">
         <v>637</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="6">
         <v>402000110</v>
       </c>
       <c r="E128" t="s">
@@ -12282,7 +13155,7 @@
       <c r="C129" t="s">
         <v>641</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="6">
         <v>402000016</v>
       </c>
       <c r="E129" t="s">
@@ -12317,7 +13190,7 @@
       <c r="C130" t="s">
         <v>648</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="6">
         <v>402000107</v>
       </c>
       <c r="E130" t="s">
@@ -12352,7 +13225,7 @@
       <c r="C131" t="s">
         <v>654</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="6">
         <v>402000107</v>
       </c>
       <c r="E131" t="s">
@@ -12390,7 +13263,7 @@
       <c r="C132" t="s">
         <v>662</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="6">
         <v>402000153</v>
       </c>
       <c r="E132" t="s">
@@ -12425,7 +13298,7 @@
       <c r="C133" t="s">
         <v>668</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="6">
         <v>402000108</v>
       </c>
       <c r="E133" t="s">
@@ -12460,7 +13333,7 @@
       <c r="C134" t="s">
         <v>672</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="7" t="s">
         <v>674</v>
       </c>
       <c r="E134" t="s">
@@ -12495,7 +13368,7 @@
       <c r="C135" t="s">
         <v>679</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="7" t="s">
         <v>681</v>
       </c>
       <c r="E135" t="s">
@@ -12533,7 +13406,7 @@
       <c r="C136" t="s">
         <v>686</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="7" t="s">
         <v>688</v>
       </c>
       <c r="E136" t="s">
@@ -12571,7 +13444,7 @@
       <c r="C137" t="s">
         <v>693</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="7" t="s">
         <v>695</v>
       </c>
       <c r="E137" t="s">
@@ -12606,7 +13479,7 @@
       <c r="B138" t="s">
         <v>595</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="6">
         <v>402000280</v>
       </c>
       <c r="E138" t="s">
@@ -12644,7 +13517,7 @@
       <c r="C139" t="s">
         <v>704</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="6">
         <v>402000007</v>
       </c>
       <c r="F139" t="s">
@@ -12679,7 +13552,7 @@
       <c r="C140" t="s">
         <v>710</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="6">
         <v>402000014</v>
       </c>
       <c r="E140" t="s">
@@ -12714,7 +13587,7 @@
       <c r="C141" t="s">
         <v>715</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="6">
         <v>402000015</v>
       </c>
       <c r="E141" t="s">
@@ -12749,7 +13622,7 @@
       <c r="C142" t="s">
         <v>720</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="6">
         <v>402000048</v>
       </c>
       <c r="E142" t="s">
@@ -12784,7 +13657,7 @@
       <c r="C143" t="s">
         <v>725</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="6">
         <v>402000047</v>
       </c>
       <c r="E143" t="s">
@@ -12819,7 +13692,7 @@
       <c r="C144" t="s">
         <v>728</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="6">
         <v>402000046</v>
       </c>
       <c r="E144" t="s">
@@ -12857,7 +13730,7 @@
       <c r="C145" t="s">
         <v>734</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="6">
         <v>402000106</v>
       </c>
       <c r="E145" t="s">
@@ -12895,7 +13768,7 @@
       <c r="C146" t="s">
         <v>740</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="6">
         <v>402000108</v>
       </c>
       <c r="E146" t="s">
@@ -12930,7 +13803,7 @@
       <c r="B147" t="s">
         <v>595</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="6">
         <v>402000178</v>
       </c>
       <c r="E147" t="s">
@@ -12965,7 +13838,7 @@
       <c r="B148" t="s">
         <v>595</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="6">
         <v>402000188</v>
       </c>
       <c r="E148" t="s">
@@ -13003,7 +13876,7 @@
       <c r="C149" t="s">
         <v>754</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="6">
         <v>402000206</v>
       </c>
       <c r="E149" t="s">
@@ -13160,7 +14033,7 @@
       <c r="B154" t="s">
         <v>595</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="6">
         <v>402000512</v>
       </c>
       <c r="E154" t="s">
@@ -13198,7 +14071,7 @@
       <c r="C155" t="s">
         <v>779</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="6">
         <v>402000097</v>
       </c>
       <c r="E155" t="s">
@@ -13236,7 +14109,7 @@
       <c r="C156" t="s">
         <v>785</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="6">
         <v>402000092</v>
       </c>
       <c r="E156" t="s">
@@ -13274,7 +14147,7 @@
       <c r="C157" t="s">
         <v>789</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="6">
         <v>402000152</v>
       </c>
       <c r="E157" t="s">
@@ -13309,7 +14182,7 @@
       <c r="C158" t="s">
         <v>793</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="6">
         <v>402000154</v>
       </c>
       <c r="E158" t="s">
@@ -13344,7 +14217,7 @@
       <c r="B159" t="s">
         <v>778</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="6">
         <v>402000155</v>
       </c>
       <c r="E159" t="s">
@@ -13379,7 +14252,7 @@
       <c r="C160" t="s">
         <v>802</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="6">
         <v>402000066</v>
       </c>
       <c r="E160" t="s">
@@ -13414,7 +14287,7 @@
       <c r="C161" t="s">
         <v>807</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="6">
         <v>402000184</v>
       </c>
       <c r="E161" t="s">
@@ -13449,7 +14322,7 @@
       <c r="C162" t="s">
         <v>810</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="7" t="s">
         <v>812</v>
       </c>
       <c r="E162" t="s">
@@ -13484,7 +14357,7 @@
       <c r="C163" t="s">
         <v>817</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="7" t="s">
         <v>819</v>
       </c>
       <c r="E163" t="s">
@@ -13519,7 +14392,7 @@
       <c r="C164" t="s">
         <v>824</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="6">
         <v>402000162</v>
       </c>
       <c r="E164" t="s">
@@ -13554,7 +14427,7 @@
       <c r="C165" t="s">
         <v>829</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="6">
         <v>402000003</v>
       </c>
       <c r="E165" t="s">
@@ -13589,7 +14462,7 @@
       <c r="C166" t="s">
         <v>834</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="6">
         <v>402000079</v>
       </c>
       <c r="E166" t="s">
@@ -13624,7 +14497,7 @@
       <c r="C167" t="s">
         <v>838</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="6">
         <v>402000094</v>
       </c>
       <c r="E167" t="s">
@@ -13662,7 +14535,7 @@
       <c r="C168" t="s">
         <v>842</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="6">
         <v>402000102</v>
       </c>
       <c r="E168" t="s">
@@ -13697,7 +14570,7 @@
       <c r="C169" t="s">
         <v>847</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="6">
         <v>402000134</v>
       </c>
       <c r="E169" t="s">
@@ -13735,7 +14608,7 @@
       <c r="C170" t="s">
         <v>852</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="6">
         <v>402000135</v>
       </c>
       <c r="E170" t="s">
@@ -13773,7 +14646,7 @@
       <c r="C171" t="s">
         <v>855</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="6">
         <v>402000124</v>
       </c>
       <c r="E171" t="s">
@@ -13808,7 +14681,7 @@
       <c r="C172" t="s">
         <v>861</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="6">
         <v>402000150</v>
       </c>
       <c r="E172" t="s">
@@ -13843,7 +14716,7 @@
       <c r="B173" t="s">
         <v>778</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="6">
         <v>402000157</v>
       </c>
       <c r="F173" t="s">
@@ -13866,7 +14739,7 @@
       <c r="B174" t="s">
         <v>778</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="6">
         <v>402000195</v>
       </c>
       <c r="E174" t="s">
@@ -13901,7 +14774,7 @@
       <c r="B175" t="s">
         <v>778</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="6">
         <v>402000196</v>
       </c>
       <c r="E175" t="s">
@@ -13936,7 +14809,7 @@
       <c r="B176" t="s">
         <v>778</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="6">
         <v>402000197</v>
       </c>
       <c r="E176" t="s">
@@ -13971,7 +14844,7 @@
       <c r="B177" t="s">
         <v>778</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="6">
         <v>402000338</v>
       </c>
       <c r="E177" t="s">
@@ -14006,7 +14879,7 @@
       <c r="B178" t="s">
         <v>778</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="6">
         <v>402000337</v>
       </c>
       <c r="E178" t="s">
@@ -14041,7 +14914,7 @@
       <c r="B179" t="s">
         <v>778</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="6">
         <v>402000360</v>
       </c>
       <c r="E179" t="s">
@@ -14076,7 +14949,7 @@
       <c r="B180" t="s">
         <v>778</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="7" t="s">
         <v>895</v>
       </c>
       <c r="E180" t="s">
@@ -14111,7 +14984,7 @@
       <c r="B181" t="s">
         <v>901</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="6">
         <v>402000056</v>
       </c>
       <c r="E181" t="s">
@@ -14146,7 +15019,7 @@
       <c r="C182" t="s">
         <v>905</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="6">
         <v>402000057</v>
       </c>
       <c r="E182" t="s">
@@ -14181,7 +15054,7 @@
       <c r="C183" t="s">
         <v>909</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="6">
         <v>402000058</v>
       </c>
       <c r="E183" t="s">
@@ -14216,7 +15089,7 @@
       <c r="B184" t="s">
         <v>901</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="7" t="s">
         <v>913</v>
       </c>
       <c r="E184" t="s">
@@ -14251,7 +15124,7 @@
       <c r="C185" t="s">
         <v>916</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="6">
         <v>402000061</v>
       </c>
       <c r="E185" t="s">
@@ -14286,7 +15159,7 @@
       <c r="C186" t="s">
         <v>919</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="6">
         <v>402000062</v>
       </c>
       <c r="E186" t="s">
@@ -14321,7 +15194,7 @@
       <c r="C187" t="s">
         <v>922</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="6">
         <v>402000064</v>
       </c>
       <c r="E187" t="s">
@@ -14356,7 +15229,7 @@
       <c r="C188" t="s">
         <v>925</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="6">
         <v>402000063</v>
       </c>
       <c r="E188" t="s">
@@ -14391,7 +15264,7 @@
       <c r="C189" t="s">
         <v>928</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="6">
         <v>402000065</v>
       </c>
       <c r="E189" t="s">
@@ -14426,7 +15299,7 @@
       <c r="C190" t="s">
         <v>802</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="6">
         <v>402000066</v>
       </c>
       <c r="E190" t="s">
@@ -14464,7 +15337,7 @@
       <c r="C191" t="s">
         <v>937</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="6">
         <v>402000004</v>
       </c>
       <c r="E191" t="s">
@@ -14502,7 +15375,7 @@
       <c r="C192" t="s">
         <v>942</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="6">
         <v>402000091</v>
       </c>
       <c r="E192" t="s">
@@ -14537,7 +15410,7 @@
       <c r="C193" t="s">
         <v>945</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="6">
         <v>402000096</v>
       </c>
       <c r="E193" t="s">
@@ -14572,7 +15445,7 @@
       <c r="C194" t="s">
         <v>948</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="6">
         <v>402000147</v>
       </c>
       <c r="E194" t="s">
@@ -14610,7 +15483,7 @@
       <c r="C195" t="s">
         <v>951</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="6">
         <v>402000148</v>
       </c>
       <c r="E195" t="s">
@@ -14648,7 +15521,7 @@
       <c r="C196" t="s">
         <v>954</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="6">
         <v>402000149</v>
       </c>
       <c r="E196" t="s">
@@ -14686,7 +15559,7 @@
       <c r="C197" t="s">
         <v>958</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="7" t="s">
         <v>960</v>
       </c>
       <c r="E197" t="s">
@@ -14721,7 +15594,7 @@
       <c r="C198" t="s">
         <v>965</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="6">
         <v>402000136</v>
       </c>
       <c r="E198" t="s">
@@ -14756,7 +15629,7 @@
       <c r="C199" t="s">
         <v>971</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="6">
         <v>402000067</v>
       </c>
       <c r="E199" t="s">
@@ -14791,7 +15664,7 @@
       <c r="C200" t="s">
         <v>978</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="6">
         <v>402000036</v>
       </c>
       <c r="E200" t="s">
@@ -14826,7 +15699,7 @@
       <c r="C201" t="s">
         <v>983</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="7" t="s">
         <v>985</v>
       </c>
       <c r="E201" t="s">
@@ -14864,7 +15737,7 @@
       <c r="C202" t="s">
         <v>991</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="6">
         <v>402000008</v>
       </c>
       <c r="E202" t="s">
@@ -14902,7 +15775,7 @@
       <c r="C203" t="s">
         <v>997</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="6">
         <v>402000005</v>
       </c>
       <c r="E203" t="s">
@@ -14937,7 +15810,7 @@
       <c r="B204" t="s">
         <v>982</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="6">
         <v>402000205</v>
       </c>
       <c r="E204" t="s">
@@ -14989,7 +15862,7 @@
       <c r="B206" t="s">
         <v>982</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206" s="6">
         <v>402000520</v>
       </c>
       <c r="E206" t="s">
@@ -15021,7 +15894,7 @@
       <c r="B207" t="s">
         <v>982</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="6">
         <v>402000048</v>
       </c>
       <c r="E207" t="s">
@@ -15050,7 +15923,7 @@
       <c r="B208" t="s">
         <v>982</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="6">
         <v>402000141</v>
       </c>
       <c r="E208" t="s">
@@ -15082,7 +15955,7 @@
       <c r="B209" t="s">
         <v>1028</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="7">
         <v>402000394</v>
       </c>
       <c r="E209" t="s">
@@ -15117,7 +15990,7 @@
       <c r="B210" t="s">
         <v>982</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="6">
         <v>402000393</v>
       </c>
       <c r="E210" t="s">
@@ -15152,7 +16025,7 @@
       <c r="B211" t="s">
         <v>1039</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="6">
         <v>402000118</v>
       </c>
       <c r="E211" t="s">
@@ -15184,7 +16057,7 @@
       <c r="B212" t="s">
         <v>1039</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="6">
         <v>402000202</v>
       </c>
       <c r="E212" t="s">
@@ -15216,7 +16089,7 @@
       <c r="B213" t="s">
         <v>1039</v>
       </c>
-      <c r="D213" s="6">
+      <c r="D213" s="8">
         <v>402000119211</v>
       </c>
       <c r="E213" t="s">
@@ -15248,7 +16121,7 @@
       <c r="B214" t="s">
         <v>1039</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="7" t="s">
         <v>1055</v>
       </c>
       <c r="E214" t="s">
@@ -15280,7 +16153,7 @@
       <c r="B215" t="s">
         <v>1039</v>
       </c>
-      <c r="D215" s="5">
+      <c r="D215" s="6">
         <v>402000122</v>
       </c>
       <c r="E215" t="s">
@@ -15315,7 +16188,7 @@
       <c r="B216" t="s">
         <v>1039</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="E216" t="s">
@@ -15347,7 +16220,7 @@
       <c r="B217" t="s">
         <v>1039</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="7" t="s">
         <v>1072</v>
       </c>
       <c r="E217" t="s">
@@ -15379,7 +16252,7 @@
       <c r="B218" t="s">
         <v>1039</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="E218" t="s">
@@ -15411,7 +16284,7 @@
       <c r="B219" t="s">
         <v>1039</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="7" t="s">
         <v>1082</v>
       </c>
       <c r="E219" t="s">
@@ -15446,7 +16319,7 @@
       <c r="B220" t="s">
         <v>1039</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D220" s="6">
         <v>402000306</v>
       </c>
       <c r="E220" t="s">
@@ -15481,7 +16354,7 @@
       <c r="B221" t="s">
         <v>1039</v>
       </c>
-      <c r="D221" s="5">
+      <c r="D221" s="6">
         <v>402000330</v>
       </c>
       <c r="E221" t="s">
@@ -15513,7 +16386,7 @@
       <c r="B222" t="s">
         <v>1039</v>
       </c>
-      <c r="D222" s="5">
+      <c r="D222" s="6">
         <v>402000304</v>
       </c>
       <c r="E222" t="s">
@@ -15545,7 +16418,7 @@
       <c r="B223" t="s">
         <v>1039</v>
       </c>
-      <c r="D223" s="5">
+      <c r="D223" s="6">
         <v>402000345</v>
       </c>
       <c r="E223" t="s">
@@ -15577,7 +16450,7 @@
       <c r="B224" t="s">
         <v>1039</v>
       </c>
-      <c r="D224" s="5">
+      <c r="D224" s="6">
         <v>402000325</v>
       </c>
       <c r="E224" t="s">
@@ -15609,7 +16482,7 @@
       <c r="B225" t="s">
         <v>1039</v>
       </c>
-      <c r="D225" s="5">
+      <c r="D225" s="6">
         <v>402000145</v>
       </c>
       <c r="E225" t="s">
@@ -15641,7 +16514,7 @@
       <c r="B226" t="s">
         <v>1039</v>
       </c>
-      <c r="D226" s="5">
+      <c r="D226" s="6">
         <v>402000344</v>
       </c>
       <c r="E226" t="s">
@@ -15673,7 +16546,7 @@
       <c r="B227" t="s">
         <v>1039</v>
       </c>
-      <c r="D227" s="5">
+      <c r="D227" s="6">
         <v>402000341</v>
       </c>
       <c r="E227" t="s">
@@ -15705,7 +16578,7 @@
       <c r="B228" t="s">
         <v>1039</v>
       </c>
-      <c r="D228" s="5">
+      <c r="D228" s="6">
         <v>405200526</v>
       </c>
       <c r="E228" t="s">
@@ -15737,7 +16610,7 @@
       <c r="B229" t="s">
         <v>1039</v>
       </c>
-      <c r="D229" s="5">
+      <c r="D229" s="6">
         <v>402000128</v>
       </c>
       <c r="E229" t="s">
@@ -15769,7 +16642,7 @@
       <c r="B230" t="s">
         <v>1039</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230" s="6">
         <v>402000221</v>
       </c>
       <c r="F230" t="s">
@@ -15792,7 +16665,7 @@
       <c r="C231" t="s">
         <v>1141</v>
       </c>
-      <c r="D231" s="5">
+      <c r="D231" s="6">
         <v>402000299</v>
       </c>
       <c r="E231" t="s">
@@ -15827,7 +16700,7 @@
       <c r="C232" t="s">
         <v>1147</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="6">
         <v>402000310</v>
       </c>
       <c r="E232" t="s">
@@ -15859,7 +16732,7 @@
       <c r="B233" t="s">
         <v>1140</v>
       </c>
-      <c r="D233" s="5">
+      <c r="D233" s="6">
         <v>402000333</v>
       </c>
       <c r="E233" t="s">
@@ -15891,7 +16764,7 @@
       <c r="B234" t="s">
         <v>1140</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D234" s="6">
         <v>402000336</v>
       </c>
       <c r="E234" t="s">
@@ -15923,7 +16796,7 @@
       <c r="B235" t="s">
         <v>1140</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="6">
         <v>402000361</v>
       </c>
       <c r="E235" t="s">
@@ -15955,7 +16828,7 @@
       <c r="B236" t="s">
         <v>1140</v>
       </c>
-      <c r="D236" s="5">
+      <c r="D236" s="6">
         <v>402000525</v>
       </c>
       <c r="F236" t="s">
@@ -15984,7 +16857,7 @@
       <c r="B237" t="s">
         <v>1140</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D237" s="6">
         <v>402000545</v>
       </c>
       <c r="E237" t="s">
@@ -16019,7 +16892,7 @@
       <c r="C238" t="s">
         <v>1178</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="6">
         <v>402000052</v>
       </c>
       <c r="E238" t="s">
@@ -16057,7 +16930,7 @@
       <c r="C239" t="s">
         <v>1185</v>
       </c>
-      <c r="D239" s="5">
+      <c r="D239" s="6">
         <v>402000053</v>
       </c>
       <c r="E239" t="s">
@@ -16095,7 +16968,7 @@
       <c r="C240" t="s">
         <v>1188</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240" s="6">
         <v>402000054</v>
       </c>
       <c r="E240" t="s">
@@ -16133,7 +17006,7 @@
       <c r="C241" t="s">
         <v>1191</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="6">
         <v>402000055</v>
       </c>
       <c r="E241" t="s">
@@ -16171,7 +17044,7 @@
       <c r="C242" t="s">
         <v>1194</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242" s="6">
         <v>402000056</v>
       </c>
       <c r="E242" t="s">
@@ -16209,7 +17082,7 @@
       <c r="C243" t="s">
         <v>1197</v>
       </c>
-      <c r="D243" s="5">
+      <c r="D243" s="6">
         <v>402000057</v>
       </c>
       <c r="E243" t="s">
@@ -16247,7 +17120,7 @@
       <c r="C244" t="s">
         <v>1200</v>
       </c>
-      <c r="D244" s="5">
+      <c r="D244" s="6">
         <v>402000058</v>
       </c>
       <c r="E244" t="s">
@@ -16285,7 +17158,7 @@
       <c r="C245" t="s">
         <v>1207</v>
       </c>
-      <c r="D245" s="5">
+      <c r="D245" s="6">
         <v>402000059</v>
       </c>
       <c r="E245" t="s">
@@ -16323,7 +17196,7 @@
       <c r="C246" t="s">
         <v>1210</v>
       </c>
-      <c r="D246" s="5">
+      <c r="D246" s="6">
         <v>402000060</v>
       </c>
       <c r="E246" t="s">
@@ -16361,7 +17234,7 @@
       <c r="C247" t="s">
         <v>1213</v>
       </c>
-      <c r="D247" s="5">
+      <c r="D247" s="6">
         <v>402000061</v>
       </c>
       <c r="E247" t="s">
@@ -16399,7 +17272,7 @@
       <c r="C248" t="s">
         <v>1216</v>
       </c>
-      <c r="D248" s="5">
+      <c r="D248" s="6">
         <v>402000062</v>
       </c>
       <c r="E248" t="s">
@@ -16437,7 +17310,7 @@
       <c r="C249" t="s">
         <v>1219</v>
       </c>
-      <c r="D249" s="5">
+      <c r="D249" s="6">
         <v>402000063</v>
       </c>
       <c r="E249" t="s">
@@ -16475,7 +17348,7 @@
       <c r="C250" t="s">
         <v>1223</v>
       </c>
-      <c r="D250" s="5">
+      <c r="D250" s="6">
         <v>402000064</v>
       </c>
       <c r="E250" t="s">
@@ -16513,7 +17386,7 @@
       <c r="C251" t="s">
         <v>1228</v>
       </c>
-      <c r="D251" s="5">
+      <c r="D251" s="6">
         <v>402000042</v>
       </c>
       <c r="E251" t="s">
@@ -16551,7 +17424,7 @@
       <c r="C252" t="s">
         <v>1233</v>
       </c>
-      <c r="D252" s="5">
+      <c r="D252" s="6">
         <v>402000043</v>
       </c>
       <c r="E252" t="s">
@@ -16589,7 +17462,7 @@
       <c r="C253" t="s">
         <v>1236</v>
       </c>
-      <c r="D253" s="5">
+      <c r="D253" s="6">
         <v>402000044</v>
       </c>
       <c r="E253" t="s">
@@ -16627,7 +17500,7 @@
       <c r="C254" t="s">
         <v>1239</v>
       </c>
-      <c r="D254" s="5">
+      <c r="D254" s="6">
         <v>402000045</v>
       </c>
       <c r="E254" t="s">
@@ -16665,7 +17538,7 @@
       <c r="C255" t="s">
         <v>1242</v>
       </c>
-      <c r="D255" s="5">
+      <c r="D255" s="6">
         <v>402000075</v>
       </c>
       <c r="E255" t="s">
@@ -16700,7 +17573,7 @@
       <c r="B256" t="s">
         <v>1177</v>
       </c>
-      <c r="D256" s="5">
+      <c r="D256" s="6">
         <v>402000243</v>
       </c>
       <c r="E256" t="s">
@@ -16735,7 +17608,7 @@
       <c r="B257" t="s">
         <v>1177</v>
       </c>
-      <c r="D257" s="5">
+      <c r="D257" s="6">
         <v>402000298</v>
       </c>
       <c r="E257" t="s">
@@ -16770,7 +17643,7 @@
       <c r="B258" t="s">
         <v>1177</v>
       </c>
-      <c r="D258" s="5">
+      <c r="D258" s="6">
         <v>402000314</v>
       </c>
       <c r="E258" t="s">
@@ -16802,7 +17675,7 @@
       <c r="B259" t="s">
         <v>1177</v>
       </c>
-      <c r="D259" s="5">
+      <c r="D259" s="6">
         <v>402000315</v>
       </c>
       <c r="E259" t="s">
@@ -16834,7 +17707,7 @@
       <c r="B260" t="s">
         <v>1177</v>
       </c>
-      <c r="D260" s="5">
+      <c r="D260" s="6">
         <v>402000316</v>
       </c>
       <c r="E260" t="s">
@@ -16866,7 +17739,7 @@
       <c r="B261" t="s">
         <v>1177</v>
       </c>
-      <c r="D261" s="5">
+      <c r="D261" s="6">
         <v>402000317</v>
       </c>
       <c r="E261" t="s">
@@ -16898,7 +17771,7 @@
       <c r="B262" t="s">
         <v>1177</v>
       </c>
-      <c r="D262" s="5">
+      <c r="D262" s="6">
         <v>402000485</v>
       </c>
       <c r="E262" t="s">
@@ -16930,7 +17803,7 @@
       <c r="B263" t="s">
         <v>1177</v>
       </c>
-      <c r="D263" s="5">
+      <c r="D263" s="6">
         <v>402000484</v>
       </c>
       <c r="E263" t="s">
@@ -16962,7 +17835,7 @@
       <c r="B264" t="s">
         <v>1177</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="6">
         <v>402000288</v>
       </c>
       <c r="E264" t="s">
@@ -16997,7 +17870,7 @@
       <c r="C265" t="s">
         <v>1280</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="7" t="s">
         <v>1282</v>
       </c>
       <c r="E265" t="s">
@@ -17032,7 +17905,7 @@
       <c r="B266" t="s">
         <v>1177</v>
       </c>
-      <c r="D266" s="5">
+      <c r="D266" s="6">
         <v>402000389</v>
       </c>
       <c r="E266" t="s">
@@ -17067,7 +17940,7 @@
       <c r="C267" t="s">
         <v>1290</v>
       </c>
-      <c r="D267" s="5">
+      <c r="D267" s="6">
         <v>402000170</v>
       </c>
       <c r="E267" t="s">
@@ -17105,7 +17978,7 @@
       <c r="C268" t="s">
         <v>1298</v>
       </c>
-      <c r="D268" s="5">
+      <c r="D268" s="6">
         <v>402000177</v>
       </c>
       <c r="E268" t="s">
@@ -17143,7 +18016,7 @@
       <c r="C269" t="s">
         <v>1303</v>
       </c>
-      <c r="D269" s="5">
+      <c r="D269" s="6">
         <v>402000275</v>
       </c>
       <c r="E269" t="s">
@@ -17175,7 +18048,7 @@
       <c r="B270" t="s">
         <v>1177</v>
       </c>
-      <c r="D270" s="5">
+      <c r="D270" s="6">
         <v>402000312</v>
       </c>
       <c r="E270" t="s">
@@ -17207,7 +18080,7 @@
       <c r="B271" t="s">
         <v>1177</v>
       </c>
-      <c r="D271" s="5">
+      <c r="D271" s="6">
         <v>402000313</v>
       </c>
       <c r="E271" t="s">
@@ -17239,7 +18112,7 @@
       <c r="B272" t="s">
         <v>1177</v>
       </c>
-      <c r="D272" s="5">
+      <c r="D272" s="6">
         <v>402000327</v>
       </c>
       <c r="E272" t="s">
@@ -17274,7 +18147,7 @@
       <c r="B273" t="s">
         <v>1177</v>
       </c>
-      <c r="D273" s="5">
+      <c r="D273" s="6">
         <v>402000352</v>
       </c>
       <c r="E273" t="s">
@@ -17306,7 +18179,7 @@
       <c r="B274" t="s">
         <v>1177</v>
       </c>
-      <c r="D274" s="5">
+      <c r="D274" s="6">
         <v>402000353</v>
       </c>
       <c r="E274" t="s">
@@ -17338,7 +18211,7 @@
       <c r="B275" t="s">
         <v>1177</v>
       </c>
-      <c r="D275" s="5">
+      <c r="D275" s="6">
         <v>402000357</v>
       </c>
       <c r="E275" t="s">
@@ -17370,7 +18243,7 @@
       <c r="B276" t="s">
         <v>1177</v>
       </c>
-      <c r="D276" s="5">
+      <c r="D276" s="6">
         <v>402000363</v>
       </c>
       <c r="E276" t="s">
@@ -17402,7 +18275,7 @@
       <c r="B277" t="s">
         <v>1177</v>
       </c>
-      <c r="D277" s="5">
+      <c r="D277" s="6">
         <v>402000364</v>
       </c>
       <c r="E277" t="s">
@@ -17434,7 +18307,7 @@
       <c r="B278" t="s">
         <v>1177</v>
       </c>
-      <c r="D278" s="5">
+      <c r="D278" s="6">
         <v>402000434</v>
       </c>
       <c r="E278" t="s">
@@ -17466,7 +18339,7 @@
       <c r="B279" t="s">
         <v>1177</v>
       </c>
-      <c r="D279" s="5">
+      <c r="D279" s="6">
         <v>402000449</v>
       </c>
       <c r="E279" t="s">
@@ -17498,7 +18371,7 @@
       <c r="B280" t="s">
         <v>1177</v>
       </c>
-      <c r="D280" s="5">
+      <c r="D280" s="6">
         <v>402000450</v>
       </c>
       <c r="E280" t="s">
@@ -17530,7 +18403,7 @@
       <c r="B281" t="s">
         <v>1177</v>
       </c>
-      <c r="D281" s="5">
+      <c r="D281" s="6">
         <v>402000483</v>
       </c>
       <c r="E281" t="s">
@@ -17565,7 +18438,7 @@
       <c r="C282" t="s">
         <v>1338</v>
       </c>
-      <c r="D282" s="5">
+      <c r="D282" s="6">
         <v>402000067</v>
       </c>
       <c r="E282" t="s">
@@ -17600,7 +18473,7 @@
       <c r="C283" t="s">
         <v>1344</v>
       </c>
-      <c r="D283" s="5">
+      <c r="D283" s="6">
         <v>402000068</v>
       </c>
       <c r="E283" t="s">
@@ -17635,7 +18508,7 @@
       <c r="C284" t="s">
         <v>1347</v>
       </c>
-      <c r="D284" s="5">
+      <c r="D284" s="6">
         <v>402000065</v>
       </c>
       <c r="E284" t="s">
@@ -17673,7 +18546,7 @@
       <c r="C285" t="s">
         <v>411</v>
       </c>
-      <c r="D285" s="5">
+      <c r="D285" s="6">
         <v>402000174</v>
       </c>
       <c r="E285" t="s">
@@ -17711,7 +18584,7 @@
       <c r="C286" t="s">
         <v>1358</v>
       </c>
-      <c r="D286" s="5">
+      <c r="D286" s="6">
         <v>402000173</v>
       </c>
       <c r="E286" t="s">
@@ -17749,7 +18622,7 @@
       <c r="C287" t="s">
         <v>1364</v>
       </c>
-      <c r="D287" s="5">
+      <c r="D287" s="6">
         <v>402000176</v>
       </c>
       <c r="E287" t="s">
@@ -17787,7 +18660,7 @@
       <c r="C288" t="s">
         <v>1368</v>
       </c>
-      <c r="D288" s="5">
+      <c r="D288" s="6">
         <v>402000208</v>
       </c>
       <c r="E288" t="s">
@@ -17825,7 +18698,7 @@
       <c r="C289" t="s">
         <v>1372</v>
       </c>
-      <c r="D289" s="5">
+      <c r="D289" s="6">
         <v>402000212</v>
       </c>
       <c r="E289" t="s">
@@ -17860,7 +18733,7 @@
       <c r="B290" t="s">
         <v>1337</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="6">
         <v>402000326</v>
       </c>
       <c r="E290" t="s">
@@ -17895,7 +18768,7 @@
       <c r="B291" t="s">
         <v>1337</v>
       </c>
-      <c r="D291" s="5">
+      <c r="D291" s="6">
         <v>402000372</v>
       </c>
       <c r="E291" t="s">
@@ -17930,7 +18803,7 @@
       <c r="B292" t="s">
         <v>1337</v>
       </c>
-      <c r="D292" s="5">
+      <c r="D292" s="6">
         <v>402000351</v>
       </c>
       <c r="E292" t="s">
@@ -17965,7 +18838,7 @@
       <c r="B293" t="s">
         <v>1337</v>
       </c>
-      <c r="D293" s="5">
+      <c r="D293" s="6">
         <v>402000391</v>
       </c>
       <c r="E293" t="s">
@@ -18000,7 +18873,7 @@
       <c r="B294" t="s">
         <v>1337</v>
       </c>
-      <c r="D294" s="5">
+      <c r="D294" s="6">
         <v>402000391</v>
       </c>
       <c r="E294" t="s">
@@ -18035,7 +18908,7 @@
       <c r="B295" t="s">
         <v>1337</v>
       </c>
-      <c r="D295" s="5">
+      <c r="D295" s="6">
         <v>402000392</v>
       </c>
       <c r="E295" t="s">
@@ -18070,7 +18943,7 @@
       <c r="B296" t="s">
         <v>1337</v>
       </c>
-      <c r="D296" s="5">
+      <c r="D296" s="6">
         <v>402000435</v>
       </c>
       <c r="E296" t="s">
@@ -18105,7 +18978,7 @@
       <c r="B297" t="s">
         <v>1337</v>
       </c>
-      <c r="D297" s="5">
+      <c r="D297" s="6">
         <v>402000446</v>
       </c>
       <c r="E297" t="s">
@@ -18137,7 +19010,7 @@
       <c r="B298" t="s">
         <v>1337</v>
       </c>
-      <c r="D298" s="5">
+      <c r="D298" s="6">
         <v>402000451</v>
       </c>
       <c r="E298" t="s">
@@ -18169,7 +19042,7 @@
       <c r="B299" t="s">
         <v>1337</v>
       </c>
-      <c r="D299" s="5">
+      <c r="D299" s="6">
         <v>402000482</v>
       </c>
       <c r="E299" t="s">
@@ -18201,7 +19074,7 @@
       <c r="B300" t="s">
         <v>1337</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="7">
         <v>402000567</v>
       </c>
       <c r="E300">
@@ -18230,7 +19103,7 @@
       <c r="C301" t="s">
         <v>1416</v>
       </c>
-      <c r="D301" s="5">
+      <c r="D301" s="6">
         <v>402000069</v>
       </c>
       <c r="E301" t="s">
@@ -18265,7 +19138,7 @@
       <c r="C302" t="s">
         <v>1422</v>
       </c>
-      <c r="D302" s="5">
+      <c r="D302" s="6">
         <v>402000320</v>
       </c>
       <c r="E302" t="s">
@@ -18303,7 +19176,7 @@
       <c r="C303" t="s">
         <v>1428</v>
       </c>
-      <c r="D303" s="5">
+      <c r="D303" s="6">
         <v>402000172</v>
       </c>
       <c r="E303" t="s">
@@ -18341,7 +19214,7 @@
       <c r="C304" t="s">
         <v>191</v>
       </c>
-      <c r="D304" s="5">
+      <c r="D304" s="6">
         <v>402000144</v>
       </c>
       <c r="E304" t="s">
@@ -18379,7 +19252,7 @@
       <c r="C305" t="s">
         <v>1436</v>
       </c>
-      <c r="D305" s="5">
+      <c r="D305" s="6">
         <v>402000182</v>
       </c>
       <c r="E305" t="s">
@@ -18417,7 +19290,7 @@
       <c r="C306" t="s">
         <v>1443</v>
       </c>
-      <c r="D306" s="5">
+      <c r="D306" s="6">
         <v>402000171</v>
       </c>
       <c r="E306" t="s">
@@ -18452,7 +19325,7 @@
       <c r="B307" t="s">
         <v>1415</v>
       </c>
-      <c r="D307" s="5">
+      <c r="D307" s="6">
         <v>402000365</v>
       </c>
       <c r="E307" t="s">
@@ -18487,7 +19360,7 @@
       <c r="C308" t="s">
         <v>1451</v>
       </c>
-      <c r="D308" s="5">
+      <c r="D308" s="6">
         <v>402000215</v>
       </c>
       <c r="E308" t="s">
@@ -18522,7 +19395,7 @@
       <c r="C309" t="s">
         <v>1456</v>
       </c>
-      <c r="D309" s="5">
+      <c r="D309" s="6">
         <v>402000216</v>
       </c>
       <c r="E309" t="s">
@@ -18557,7 +19430,7 @@
       <c r="C310" t="s">
         <v>1462</v>
       </c>
-      <c r="D310" s="5">
+      <c r="D310" s="6">
         <v>402000213</v>
       </c>
       <c r="E310" t="s">
@@ -18592,7 +19465,7 @@
       <c r="C311" t="s">
         <v>1466</v>
       </c>
-      <c r="D311" s="5">
+      <c r="D311" s="6">
         <v>402000229</v>
       </c>
       <c r="E311" t="s">
@@ -18627,7 +19500,7 @@
       <c r="C312" t="s">
         <v>1469</v>
       </c>
-      <c r="D312" s="5">
+      <c r="D312" s="6">
         <v>402000230</v>
       </c>
       <c r="E312" t="s">
@@ -18662,7 +19535,7 @@
       <c r="C313" t="s">
         <v>1472</v>
       </c>
-      <c r="D313" s="5">
+      <c r="D313" s="6">
         <v>402000234</v>
       </c>
       <c r="E313" t="s">
@@ -18697,7 +19570,7 @@
       <c r="C314" t="s">
         <v>1476</v>
       </c>
-      <c r="D314" s="5">
+      <c r="D314" s="6">
         <v>402000235</v>
       </c>
       <c r="E314" t="s">
@@ -18732,7 +19605,7 @@
       <c r="C315" t="s">
         <v>1479</v>
       </c>
-      <c r="D315" s="5">
+      <c r="D315" s="6">
         <v>402000231</v>
       </c>
       <c r="E315" t="s">
@@ -18767,7 +19640,7 @@
       <c r="C316" t="s">
         <v>1484</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="6">
         <v>402000238</v>
       </c>
       <c r="E316" t="s">
@@ -18802,7 +19675,7 @@
       <c r="C317" t="s">
         <v>1487</v>
       </c>
-      <c r="D317" s="5">
+      <c r="D317" s="6">
         <v>402000291</v>
       </c>
       <c r="E317" t="s">
@@ -18837,7 +19710,7 @@
       <c r="C318" t="s">
         <v>1491</v>
       </c>
-      <c r="D318" s="5">
+      <c r="D318" s="6">
         <v>402000246</v>
       </c>
       <c r="E318" t="s">
@@ -18872,7 +19745,7 @@
       <c r="C319" t="s">
         <v>1495</v>
       </c>
-      <c r="D319" s="5">
+      <c r="D319" s="6">
         <v>402000247</v>
       </c>
       <c r="E319" t="s">
@@ -18907,7 +19780,7 @@
       <c r="C320" t="s">
         <v>1498</v>
       </c>
-      <c r="D320" s="5">
+      <c r="D320" s="6">
         <v>402000248</v>
       </c>
       <c r="E320" t="s">
@@ -18942,7 +19815,7 @@
       <c r="C321" t="s">
         <v>1501</v>
       </c>
-      <c r="D321" s="5">
+      <c r="D321" s="6">
         <v>402000247</v>
       </c>
       <c r="E321" t="s">
@@ -18977,7 +19850,7 @@
       <c r="C322" t="s">
         <v>1504</v>
       </c>
-      <c r="D322" s="5">
+      <c r="D322" s="6">
         <v>402000244</v>
       </c>
       <c r="E322" t="s">
@@ -19012,7 +19885,7 @@
       <c r="C323" t="s">
         <v>1511</v>
       </c>
-      <c r="D323" s="5">
+      <c r="D323" s="6">
         <v>402000245</v>
       </c>
       <c r="E323" t="s">
@@ -19047,7 +19920,7 @@
       <c r="C324" t="s">
         <v>1514</v>
       </c>
-      <c r="D324" s="5">
+      <c r="D324" s="6">
         <v>402000252</v>
       </c>
       <c r="E324" t="s">
@@ -19082,7 +19955,7 @@
       <c r="C325" t="s">
         <v>1519</v>
       </c>
-      <c r="D325" s="5">
+      <c r="D325" s="6">
         <v>402000257</v>
       </c>
       <c r="E325" t="s">
@@ -19117,7 +19990,7 @@
       <c r="C326" t="s">
         <v>1522</v>
       </c>
-      <c r="D326" s="5">
+      <c r="D326" s="6">
         <v>402000258</v>
       </c>
       <c r="E326" t="s">
@@ -19152,7 +20025,7 @@
       <c r="C327" t="s">
         <v>1525</v>
       </c>
-      <c r="D327" s="5">
+      <c r="D327" s="6">
         <v>402000251</v>
       </c>
       <c r="E327" t="s">
@@ -19190,7 +20063,7 @@
       <c r="C328" t="s">
         <v>1529</v>
       </c>
-      <c r="D328" s="5">
+      <c r="D328" s="6">
         <v>402000259</v>
       </c>
       <c r="E328" t="s">
@@ -19228,7 +20101,7 @@
       <c r="C329" t="s">
         <v>1532</v>
       </c>
-      <c r="D329" s="5">
+      <c r="D329" s="6">
         <v>402000253</v>
       </c>
       <c r="E329" t="s">
@@ -19266,7 +20139,7 @@
       <c r="C330" t="s">
         <v>1538</v>
       </c>
-      <c r="D330" s="5">
+      <c r="D330" s="6">
         <v>402000254</v>
       </c>
       <c r="E330" t="s">
@@ -19304,7 +20177,7 @@
       <c r="C331" t="s">
         <v>1544</v>
       </c>
-      <c r="D331" s="5">
+      <c r="D331" s="6">
         <v>402000255</v>
       </c>
       <c r="E331" t="s">
@@ -19342,7 +20215,7 @@
       <c r="C332" t="s">
         <v>1549</v>
       </c>
-      <c r="D332" s="5">
+      <c r="D332" s="6">
         <v>402000261</v>
       </c>
       <c r="E332" t="s">
@@ -19377,7 +20250,7 @@
       <c r="C333" t="s">
         <v>1552</v>
       </c>
-      <c r="D333" s="5">
+      <c r="D333" s="6">
         <v>402000271</v>
       </c>
       <c r="E333" t="s">
@@ -19412,7 +20285,7 @@
       <c r="C334" t="s">
         <v>1555</v>
       </c>
-      <c r="D334" s="5">
+      <c r="D334" s="6">
         <v>402000269</v>
       </c>
       <c r="E334" t="s">
@@ -19447,7 +20320,7 @@
       <c r="B335" t="s">
         <v>1415</v>
       </c>
-      <c r="D335" s="5">
+      <c r="D335" s="6">
         <v>402000283</v>
       </c>
       <c r="E335" t="s">
@@ -19479,7 +20352,7 @@
       <c r="B336" t="s">
         <v>1415</v>
       </c>
-      <c r="D336" s="5">
+      <c r="D336" s="6">
         <v>402000300</v>
       </c>
       <c r="E336" t="s">
@@ -19514,7 +20387,7 @@
       <c r="C337" t="s">
         <v>1562</v>
       </c>
-      <c r="D337" s="5">
+      <c r="D337" s="6">
         <v>402000289</v>
       </c>
       <c r="E337" t="s">
@@ -19549,7 +20422,7 @@
       <c r="C338" t="s">
         <v>1562</v>
       </c>
-      <c r="D338" s="5">
+      <c r="D338" s="6">
         <v>402000290</v>
       </c>
       <c r="E338" t="s">
@@ -19581,7 +20454,7 @@
       <c r="B339" t="s">
         <v>1415</v>
       </c>
-      <c r="D339" s="5">
+      <c r="D339" s="6">
         <v>402000299</v>
       </c>
       <c r="E339" t="s">
@@ -19613,7 +20486,7 @@
       <c r="B340" t="s">
         <v>1415</v>
       </c>
-      <c r="D340" s="5">
+      <c r="D340" s="6">
         <v>402000293</v>
       </c>
       <c r="E340" t="s">
@@ -19645,7 +20518,7 @@
       <c r="B341" t="s">
         <v>1415</v>
       </c>
-      <c r="D341" s="5">
+      <c r="D341" s="6">
         <v>402000306</v>
       </c>
       <c r="E341" t="s">
@@ -19680,7 +20553,7 @@
       <c r="B342" t="s">
         <v>1415</v>
       </c>
-      <c r="D342" s="5">
+      <c r="D342" s="6">
         <v>402000319</v>
       </c>
       <c r="E342" t="s">
@@ -19715,7 +20588,7 @@
       <c r="B343" t="s">
         <v>1415</v>
       </c>
-      <c r="D343" s="5">
+      <c r="D343" s="6">
         <v>402000318</v>
       </c>
       <c r="E343" t="s">
@@ -19750,7 +20623,7 @@
       <c r="B344" t="s">
         <v>1415</v>
       </c>
-      <c r="D344" s="5">
+      <c r="D344" s="6">
         <v>402000310</v>
       </c>
       <c r="E344" t="s">
@@ -19785,7 +20658,7 @@
       <c r="B345" t="s">
         <v>1415</v>
       </c>
-      <c r="D345" s="5">
+      <c r="D345" s="6">
         <v>402000304</v>
       </c>
       <c r="E345" t="s">
@@ -19817,7 +20690,7 @@
       <c r="B346" t="s">
         <v>1415</v>
       </c>
-      <c r="D346" s="5">
+      <c r="D346" s="6">
         <v>402000331</v>
       </c>
       <c r="E346" t="s">
@@ -19849,7 +20722,7 @@
       <c r="B347" t="s">
         <v>1415</v>
       </c>
-      <c r="D347" s="5">
+      <c r="D347" s="6">
         <v>402000332</v>
       </c>
       <c r="E347" t="s">
@@ -19881,7 +20754,7 @@
       <c r="B348" t="s">
         <v>1415</v>
       </c>
-      <c r="D348" s="5">
+      <c r="D348" s="6">
         <v>402000307</v>
       </c>
       <c r="E348" t="s">
@@ -19916,7 +20789,7 @@
       <c r="B349" t="s">
         <v>1415</v>
       </c>
-      <c r="D349" s="5">
+      <c r="D349" s="6">
         <v>402000356</v>
       </c>
       <c r="E349" t="s">
@@ -19951,7 +20824,7 @@
       <c r="B350" t="s">
         <v>1415</v>
       </c>
-      <c r="D350" s="5">
+      <c r="D350" s="6">
         <v>402000334</v>
       </c>
       <c r="E350" t="s">
@@ -19986,7 +20859,7 @@
       <c r="B351" t="s">
         <v>1415</v>
       </c>
-      <c r="D351" s="5">
+      <c r="D351" s="6">
         <v>402000359</v>
       </c>
       <c r="E351" t="s">
@@ -20021,7 +20894,7 @@
       <c r="B352" t="s">
         <v>1415</v>
       </c>
-      <c r="D352" s="5">
+      <c r="D352" s="6">
         <v>402000377</v>
       </c>
       <c r="E352" t="s">
@@ -20056,7 +20929,7 @@
       <c r="B353" t="s">
         <v>1415</v>
       </c>
-      <c r="D353" s="5">
+      <c r="D353" s="6">
         <v>402000376</v>
       </c>
       <c r="E353" t="s">
@@ -20091,7 +20964,7 @@
       <c r="B354" t="s">
         <v>1415</v>
       </c>
-      <c r="D354" s="5">
+      <c r="D354" s="6">
         <v>402000362</v>
       </c>
       <c r="E354" t="s">
@@ -20126,7 +20999,7 @@
       <c r="B355" t="s">
         <v>1415</v>
       </c>
-      <c r="D355" s="5">
+      <c r="D355" s="6">
         <v>402000375</v>
       </c>
       <c r="E355" t="s">
@@ -20161,7 +21034,7 @@
       <c r="B356" t="s">
         <v>1415</v>
       </c>
-      <c r="D356" s="5">
+      <c r="D356" s="6">
         <v>402000378</v>
       </c>
       <c r="E356" t="s">
@@ -20196,7 +21069,7 @@
       <c r="B357" t="s">
         <v>1415</v>
       </c>
-      <c r="D357" s="5">
+      <c r="D357" s="6">
         <v>402000354</v>
       </c>
       <c r="E357" t="s">
@@ -20231,7 +21104,7 @@
       <c r="B358" t="s">
         <v>1415</v>
       </c>
-      <c r="D358" s="5">
+      <c r="D358" s="6">
         <v>402000374</v>
       </c>
       <c r="E358" t="s">
@@ -20266,7 +21139,7 @@
       <c r="B359" t="s">
         <v>1415</v>
       </c>
-      <c r="D359" s="5">
+      <c r="D359" s="6">
         <v>402000385</v>
       </c>
       <c r="E359" t="s">
@@ -20301,7 +21174,7 @@
       <c r="B360" t="s">
         <v>1415</v>
       </c>
-      <c r="D360" s="5">
+      <c r="D360" s="6">
         <v>402000386</v>
       </c>
       <c r="E360" t="s">
@@ -20336,7 +21209,7 @@
       <c r="B361" t="s">
         <v>1415</v>
       </c>
-      <c r="D361" s="5">
+      <c r="D361" s="6">
         <v>402000387</v>
       </c>
       <c r="E361" t="s">
@@ -20371,7 +21244,7 @@
       <c r="B362" t="s">
         <v>1415</v>
       </c>
-      <c r="D362" s="5">
+      <c r="D362" s="6">
         <v>402000395</v>
       </c>
       <c r="E362" t="s">
@@ -20406,7 +21279,7 @@
       <c r="B363" t="s">
         <v>1415</v>
       </c>
-      <c r="D363" s="5">
+      <c r="D363" s="6">
         <v>402000396</v>
       </c>
       <c r="E363" t="s">
@@ -20441,7 +21314,7 @@
       <c r="B364" t="s">
         <v>1415</v>
       </c>
-      <c r="D364" s="5">
+      <c r="D364" s="6">
         <v>402000397</v>
       </c>
       <c r="E364" t="s">
@@ -20473,7 +21346,7 @@
       <c r="B365" t="s">
         <v>1415</v>
       </c>
-      <c r="D365" s="5">
+      <c r="D365" s="6">
         <v>402000398</v>
       </c>
       <c r="E365" t="s">
@@ -20505,7 +21378,7 @@
       <c r="B366" t="s">
         <v>1415</v>
       </c>
-      <c r="D366" s="5">
+      <c r="D366" s="6">
         <v>402000399</v>
       </c>
       <c r="E366" t="s">
@@ -20537,7 +21410,7 @@
       <c r="B367" t="s">
         <v>1415</v>
       </c>
-      <c r="D367" s="5">
+      <c r="D367" s="6">
         <v>402000400</v>
       </c>
       <c r="E367" t="s">
@@ -20569,7 +21442,7 @@
       <c r="B368" t="s">
         <v>1415</v>
       </c>
-      <c r="D368" s="5">
+      <c r="D368" s="6">
         <v>402000381</v>
       </c>
       <c r="E368" t="s">
@@ -20601,7 +21474,7 @@
       <c r="B369" t="s">
         <v>1415</v>
       </c>
-      <c r="D369" s="5">
+      <c r="D369" s="6">
         <v>40200401</v>
       </c>
       <c r="E369" t="s">
@@ -20636,7 +21509,7 @@
       <c r="B370" t="s">
         <v>1415</v>
       </c>
-      <c r="D370" s="5">
+      <c r="D370" s="6">
         <v>402000383</v>
       </c>
       <c r="E370" t="s">
@@ -20668,7 +21541,7 @@
       <c r="B371" t="s">
         <v>1415</v>
       </c>
-      <c r="D371" s="5">
+      <c r="D371" s="6">
         <v>402000384</v>
       </c>
       <c r="E371" t="s">
@@ -20700,7 +21573,7 @@
       <c r="B372" t="s">
         <v>1415</v>
       </c>
-      <c r="D372" s="5">
+      <c r="D372" s="6">
         <v>402000402</v>
       </c>
       <c r="E372" t="s">
@@ -20732,7 +21605,7 @@
       <c r="B373" t="s">
         <v>1415</v>
       </c>
-      <c r="D373" s="5">
+      <c r="D373" s="6">
         <v>402000403</v>
       </c>
       <c r="E373" t="s">
@@ -20764,7 +21637,7 @@
       <c r="B374" t="s">
         <v>1415</v>
       </c>
-      <c r="D374" s="5">
+      <c r="D374" s="6">
         <v>402000436</v>
       </c>
       <c r="E374" t="s">
@@ -20799,7 +21672,7 @@
       <c r="B375" t="s">
         <v>1415</v>
       </c>
-      <c r="D375" s="5">
+      <c r="D375" s="6">
         <v>402000447</v>
       </c>
       <c r="E375" t="s">
@@ -20834,7 +21707,7 @@
       <c r="B376" t="s">
         <v>1415</v>
       </c>
-      <c r="D376" s="5">
+      <c r="D376" s="6">
         <v>402000448</v>
       </c>
       <c r="E376" t="s">
@@ -20866,7 +21739,7 @@
       <c r="B377" t="s">
         <v>1415</v>
       </c>
-      <c r="D377" s="5">
+      <c r="D377" s="6">
         <v>402000452</v>
       </c>
       <c r="E377" t="s">
@@ -20898,7 +21771,7 @@
       <c r="B378" t="s">
         <v>1415</v>
       </c>
-      <c r="D378" s="5">
+      <c r="D378" s="6">
         <v>402000453</v>
       </c>
       <c r="E378" t="s">
@@ -20930,7 +21803,7 @@
       <c r="B379" t="s">
         <v>1415</v>
       </c>
-      <c r="D379" s="5">
+      <c r="D379" s="6">
         <v>402000455</v>
       </c>
       <c r="E379" t="s">
@@ -20962,7 +21835,7 @@
       <c r="B380" t="s">
         <v>1415</v>
       </c>
-      <c r="D380" s="5">
+      <c r="D380" s="6">
         <v>402000521</v>
       </c>
       <c r="E380" t="s">
@@ -20994,7 +21867,7 @@
       <c r="B381" t="s">
         <v>1415</v>
       </c>
-      <c r="D381" s="5">
+      <c r="D381" s="6">
         <v>402000522</v>
       </c>
       <c r="E381" t="s">
@@ -21026,7 +21899,7 @@
       <c r="B382" t="s">
         <v>1415</v>
       </c>
-      <c r="D382" s="5">
+      <c r="D382" s="6">
         <v>402000454</v>
       </c>
       <c r="E382" t="s">
@@ -21058,7 +21931,7 @@
       <c r="B383" t="s">
         <v>1415</v>
       </c>
-      <c r="D383" s="5">
+      <c r="D383" s="6">
         <v>402000539</v>
       </c>
       <c r="E383" t="s">
@@ -21090,7 +21963,7 @@
       <c r="B384" t="s">
         <v>1415</v>
       </c>
-      <c r="D384" s="5">
+      <c r="D384" s="6">
         <v>402000540</v>
       </c>
       <c r="E384" t="s">
@@ -21122,7 +21995,7 @@
       <c r="B385" t="s">
         <v>1415</v>
       </c>
-      <c r="D385" s="5">
+      <c r="D385" s="6">
         <v>402000541</v>
       </c>
       <c r="E385" t="s">
@@ -21154,7 +22027,7 @@
       <c r="B386" t="s">
         <v>1415</v>
       </c>
-      <c r="D386" s="5">
+      <c r="D386" s="6">
         <v>402000542</v>
       </c>
       <c r="E386" t="s">
@@ -21186,7 +22059,7 @@
       <c r="B387" t="s">
         <v>1415</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="7">
         <v>402000566</v>
       </c>
       <c r="E387">
@@ -21218,7 +22091,7 @@
       <c r="B388" t="s">
         <v>1415</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="7">
         <v>402000552</v>
       </c>
       <c r="E388">
@@ -21250,7 +22123,7 @@
       <c r="B389" t="s">
         <v>1703</v>
       </c>
-      <c r="D389" s="5">
+      <c r="D389" s="6">
         <v>402000070</v>
       </c>
       <c r="E389" t="s">
@@ -21282,7 +22155,7 @@
       <c r="B390" t="s">
         <v>1703</v>
       </c>
-      <c r="D390" s="5">
+      <c r="D390" s="6">
         <v>402000186</v>
       </c>
       <c r="F390" t="s">
@@ -21368,7 +22241,7 @@
       <c r="B394" t="s">
         <v>1722</v>
       </c>
-      <c r="D394" s="5">
+      <c r="D394" s="6">
         <v>402000147</v>
       </c>
       <c r="E394" t="s">
@@ -21400,7 +22273,7 @@
       <c r="B395" t="s">
         <v>1722</v>
       </c>
-      <c r="D395" s="5">
+      <c r="D395" s="6">
         <v>402000147</v>
       </c>
       <c r="E395" t="s">
@@ -21432,7 +22305,7 @@
       <c r="B396" t="s">
         <v>1722</v>
       </c>
-      <c r="D396" s="5">
+      <c r="D396" s="6">
         <v>402000082</v>
       </c>
       <c r="E396" t="s">
@@ -21467,7 +22340,7 @@
       <c r="B397" t="s">
         <v>1722</v>
       </c>
-      <c r="D397" s="5">
+      <c r="D397" s="6">
         <v>402000222</v>
       </c>
       <c r="E397" t="s">
@@ -21560,7 +22433,7 @@
       <c r="B400" t="s">
         <v>1703</v>
       </c>
-      <c r="D400" s="5">
+      <c r="D400" s="6">
         <v>402000297</v>
       </c>
       <c r="E400" t="s">
@@ -21595,7 +22468,7 @@
       <c r="B401" t="s">
         <v>1722</v>
       </c>
-      <c r="D401" s="5">
+      <c r="D401" s="6">
         <v>402000480</v>
       </c>
       <c r="F401" t="s">
@@ -21655,7 +22528,7 @@
       <c r="B404" t="s">
         <v>1774</v>
       </c>
-      <c r="D404" s="5">
+      <c r="D404" s="6">
         <v>404000301</v>
       </c>
       <c r="F404" t="s">
@@ -21678,7 +22551,7 @@
       <c r="B405" t="s">
         <v>1774</v>
       </c>
-      <c r="D405" s="5">
+      <c r="D405" s="6">
         <v>404001140</v>
       </c>
       <c r="F405" t="s">
@@ -21698,7 +22571,7 @@
       <c r="B406" t="s">
         <v>1774</v>
       </c>
-      <c r="D406" s="5">
+      <c r="D406" s="6">
         <v>404001139</v>
       </c>
       <c r="F406" t="s">
@@ -21718,7 +22591,7 @@
       <c r="B407" t="s">
         <v>1774</v>
       </c>
-      <c r="D407" s="5">
+      <c r="D407" s="6">
         <v>901000308</v>
       </c>
       <c r="F407" t="s">
@@ -21793,7 +22666,7 @@
       <c r="B410" t="s">
         <v>1783</v>
       </c>
-      <c r="D410" s="5">
+      <c r="D410" s="6">
         <v>404003898</v>
       </c>
       <c r="E410" t="s">
@@ -21898,7 +22771,7 @@
       <c r="B416" t="s">
         <v>1806</v>
       </c>
-      <c r="D416" s="5">
+      <c r="D416" s="6">
         <v>1102007</v>
       </c>
       <c r="F416" t="s">
@@ -21935,7 +22808,7 @@
       <c r="B418" t="s">
         <v>1806</v>
       </c>
-      <c r="D418" s="5">
+      <c r="D418" s="6">
         <v>29082007</v>
       </c>
       <c r="F418" t="s">
@@ -21998,7 +22871,7 @@
       <c r="B421" t="s">
         <v>1806</v>
       </c>
-      <c r="D421" s="5">
+      <c r="D421" s="6">
         <v>21052007</v>
       </c>
       <c r="F421" t="s">
@@ -22067,7 +22940,7 @@
       <c r="B424" t="s">
         <v>1806</v>
       </c>
-      <c r="D424" s="5">
+      <c r="D424" s="6">
         <v>14072007</v>
       </c>
       <c r="F424" t="s">
@@ -22096,7 +22969,7 @@
       <c r="B425" t="s">
         <v>1806</v>
       </c>
-      <c r="D425" s="5">
+      <c r="D425" s="6">
         <v>1112008</v>
       </c>
       <c r="F425" t="s">
@@ -22498,7 +23371,7 @@
       <c r="B446" t="s">
         <v>1806</v>
       </c>
-      <c r="D446" s="5">
+      <c r="D446" s="6">
         <v>410200007</v>
       </c>
       <c r="E446" t="s">
@@ -22533,7 +23406,7 @@
       <c r="C447" t="s">
         <v>1867</v>
       </c>
-      <c r="D447" s="5">
+      <c r="D447" s="6">
         <v>402000189</v>
       </c>
       <c r="E447" t="s">
@@ -22582,7 +23455,7 @@
       <c r="B449" t="s">
         <v>1806</v>
       </c>
-      <c r="D449" s="5">
+      <c r="D449" s="6">
         <v>402000437</v>
       </c>
       <c r="F449" t="s">
@@ -22602,7 +23475,7 @@
       <c r="B450" t="s">
         <v>1806</v>
       </c>
-      <c r="D450" s="5">
+      <c r="D450" s="6">
         <v>402000187</v>
       </c>
       <c r="F450" t="s">
@@ -22682,7 +23555,7 @@
       <c r="B454" t="s">
         <v>1880</v>
       </c>
-      <c r="D454" s="5">
+      <c r="D454" s="6">
         <v>402000301</v>
       </c>
       <c r="E454" t="s">
@@ -22785,7 +23658,7 @@
       <c r="B459" t="s">
         <v>1891</v>
       </c>
-      <c r="D459" s="5">
+      <c r="D459" s="6">
         <v>404000621</v>
       </c>
       <c r="F459" t="s">
@@ -22805,7 +23678,7 @@
       <c r="B460" t="s">
         <v>1902</v>
       </c>
-      <c r="D460" s="5">
+      <c r="D460" s="6">
         <v>402000169</v>
       </c>
       <c r="E460" t="s">
@@ -22837,7 +23710,7 @@
       <c r="B461" t="s">
         <v>1902</v>
       </c>
-      <c r="D461" s="5">
+      <c r="D461" s="6">
         <v>404001331</v>
       </c>
       <c r="F461" t="s">
@@ -22860,7 +23733,7 @@
       <c r="B462" t="s">
         <v>1902</v>
       </c>
-      <c r="D462" s="5">
+      <c r="D462" s="6">
         <v>402000085</v>
       </c>
       <c r="E462" t="s">
@@ -22895,7 +23768,7 @@
       <c r="B463" t="s">
         <v>1902</v>
       </c>
-      <c r="D463" s="5">
+      <c r="D463" s="6">
         <v>402000084</v>
       </c>
       <c r="E463" t="s">
@@ -23198,7 +24071,7 @@
       <c r="B484" t="s">
         <v>1965</v>
       </c>
-      <c r="D484" s="5">
+      <c r="D484" s="6">
         <v>404000201</v>
       </c>
       <c r="E484" t="s">
@@ -23233,7 +24106,7 @@
       <c r="B485" t="s">
         <v>1965</v>
       </c>
-      <c r="D485" s="5">
+      <c r="D485" s="6">
         <v>404000201</v>
       </c>
       <c r="E485" t="s">
@@ -23300,7 +24173,7 @@
       <c r="B487" t="s">
         <v>1965</v>
       </c>
-      <c r="D487" s="5">
+      <c r="D487" s="6">
         <v>402000277</v>
       </c>
       <c r="E487" t="s">
@@ -23335,7 +24208,7 @@
       <c r="B488" t="s">
         <v>1989</v>
       </c>
-      <c r="D488" s="5">
+      <c r="D488" s="6">
         <v>402000001</v>
       </c>
       <c r="F488" t="s">
@@ -23364,7 +24237,7 @@
       <c r="B489" t="s">
         <v>1989</v>
       </c>
-      <c r="D489" s="5">
+      <c r="D489" s="6">
         <v>402000007</v>
       </c>
       <c r="F489" t="s">
@@ -23390,7 +24263,7 @@
       <c r="B490" t="s">
         <v>1989</v>
       </c>
-      <c r="D490" s="5">
+      <c r="D490" s="6">
         <v>402000010</v>
       </c>
       <c r="F490" t="s">
@@ -23419,7 +24292,7 @@
       <c r="B491" t="s">
         <v>1989</v>
       </c>
-      <c r="D491" s="5">
+      <c r="D491" s="6">
         <v>402000012</v>
       </c>
       <c r="F491" t="s">
@@ -23448,7 +24321,7 @@
       <c r="B492" t="s">
         <v>1989</v>
       </c>
-      <c r="D492" s="5">
+      <c r="D492" s="6">
         <v>402000015</v>
       </c>
       <c r="E492" t="s">
@@ -23480,7 +24353,7 @@
       <c r="B493" t="s">
         <v>1989</v>
       </c>
-      <c r="D493" s="5">
+      <c r="D493" s="6">
         <v>402000019</v>
       </c>
       <c r="F493" t="s">
@@ -23503,7 +24376,7 @@
       <c r="B494" t="s">
         <v>1989</v>
       </c>
-      <c r="D494" s="5">
+      <c r="D494" s="6">
         <v>402000018</v>
       </c>
       <c r="F494" t="s">
@@ -24283,7 +25156,7 @@
       <c r="B524" t="s">
         <v>1989</v>
       </c>
-      <c r="D524" s="5">
+      <c r="D524" s="6">
         <v>402000001</v>
       </c>
       <c r="F524" t="s">
@@ -24312,7 +25185,7 @@
       <c r="B525" t="s">
         <v>1989</v>
       </c>
-      <c r="D525" s="5">
+      <c r="D525" s="6">
         <v>402000005</v>
       </c>
       <c r="F525" t="s">
@@ -24335,7 +25208,7 @@
       <c r="B526" t="s">
         <v>1989</v>
       </c>
-      <c r="D526" s="5">
+      <c r="D526" s="6">
         <v>402000009</v>
       </c>
       <c r="E526" t="s">
@@ -24367,7 +25240,7 @@
       <c r="B527" t="s">
         <v>1989</v>
       </c>
-      <c r="D527" s="5">
+      <c r="D527" s="6">
         <v>402000011</v>
       </c>
       <c r="E527" t="s">
@@ -24399,7 +25272,7 @@
       <c r="B528" t="s">
         <v>1989</v>
       </c>
-      <c r="D528" s="5">
+      <c r="D528" s="6">
         <v>402000013</v>
       </c>
       <c r="E528" t="s">
@@ -24431,7 +25304,7 @@
       <c r="B529" t="s">
         <v>1989</v>
       </c>
-      <c r="D529" s="5">
+      <c r="D529" s="6">
         <v>402000014</v>
       </c>
       <c r="E529" t="s">
@@ -24460,7 +25333,7 @@
       <c r="B530" t="s">
         <v>1989</v>
       </c>
-      <c r="D530" s="5">
+      <c r="D530" s="6">
         <v>402000193</v>
       </c>
       <c r="E530" t="s">
@@ -24492,7 +25365,7 @@
       <c r="B531" t="s">
         <v>1989</v>
       </c>
-      <c r="D531" s="5">
+      <c r="D531" s="6">
         <v>402000194</v>
       </c>
       <c r="E531" t="s">
@@ -25139,7 +26012,7 @@
       <c r="B553" t="s">
         <v>1989</v>
       </c>
-      <c r="D553" s="5">
+      <c r="D553" s="6">
         <v>402000020</v>
       </c>
       <c r="F553" t="s">
@@ -25226,7 +26099,7 @@
       <c r="B556" t="s">
         <v>1989</v>
       </c>
-      <c r="D556" s="5">
+      <c r="D556" s="6">
         <v>402000309</v>
       </c>
       <c r="E556" t="s">
@@ -25261,7 +26134,7 @@
       <c r="B557" t="s">
         <v>1989</v>
       </c>
-      <c r="D557" s="5">
+      <c r="D557" s="6">
         <v>402000022</v>
       </c>
       <c r="E557" t="s">
@@ -25325,7 +26198,7 @@
       <c r="B559" t="s">
         <v>1989</v>
       </c>
-      <c r="D559" s="5">
+      <c r="D559" s="6">
         <v>402000071</v>
       </c>
       <c r="F559" t="s">
@@ -25345,7 +26218,7 @@
       <c r="B560" t="s">
         <v>1989</v>
       </c>
-      <c r="D560" s="5">
+      <c r="D560" s="6">
         <v>402000072</v>
       </c>
       <c r="F560" t="s">
@@ -25365,7 +26238,7 @@
       <c r="B561" t="s">
         <v>1989</v>
       </c>
-      <c r="D561" s="5">
+      <c r="D561" s="6">
         <v>402000073</v>
       </c>
       <c r="F561" t="s">
@@ -25476,7 +26349,7 @@
       <c r="B567" t="s">
         <v>1989</v>
       </c>
-      <c r="D567" s="5">
+      <c r="D567" s="6">
         <v>405000001</v>
       </c>
       <c r="E567" t="s">
@@ -25508,7 +26381,7 @@
       <c r="B568" t="s">
         <v>1039</v>
       </c>
-      <c r="D568" s="5">
+      <c r="D568" s="6">
         <v>405000001</v>
       </c>
       <c r="E568" t="s">
@@ -25708,7 +26581,7 @@
       <c r="B575" t="s">
         <v>1039</v>
       </c>
-      <c r="D575" s="5">
+      <c r="D575" s="6">
         <v>404000363</v>
       </c>
       <c r="E575" t="s">
@@ -25740,7 +26613,7 @@
       <c r="B576" t="s">
         <v>1039</v>
       </c>
-      <c r="D576" s="5">
+      <c r="D576" s="6">
         <v>404000363</v>
       </c>
       <c r="E576" t="s">
@@ -25772,7 +26645,7 @@
       <c r="B577" t="s">
         <v>2216</v>
       </c>
-      <c r="D577" s="5">
+      <c r="D577" s="6">
         <v>404000330</v>
       </c>
       <c r="E577" t="s">
@@ -25804,7 +26677,7 @@
       <c r="B578" t="s">
         <v>2216</v>
       </c>
-      <c r="D578" s="5">
+      <c r="D578" s="6">
         <v>404001181</v>
       </c>
       <c r="F578" t="s">
@@ -25833,7 +26706,7 @@
       <c r="B579" t="s">
         <v>2216</v>
       </c>
-      <c r="D579" s="5">
+      <c r="D579" s="6">
         <v>404001182</v>
       </c>
       <c r="F579" t="s">
@@ -26412,7 +27285,7 @@
       <c r="B606" t="s">
         <v>2329</v>
       </c>
-      <c r="D606" s="5">
+      <c r="D606" s="6">
         <v>4020000274</v>
       </c>
       <c r="E606" t="s">
@@ -26441,7 +27314,7 @@
       <c r="B607" t="s">
         <v>2335</v>
       </c>
-      <c r="D607" s="5">
+      <c r="D607" s="6">
         <v>402000164</v>
       </c>
       <c r="E607" t="s">
@@ -26785,7 +27658,7 @@
       <c r="B620" t="s">
         <v>1774</v>
       </c>
-      <c r="D620" s="5">
+      <c r="D620" s="6">
         <v>402000349</v>
       </c>
       <c r="E620" t="s">
@@ -26814,7 +27687,7 @@
       <c r="B621" t="s">
         <v>2394</v>
       </c>
-      <c r="D621" s="5">
+      <c r="D621" s="6">
         <v>402000280</v>
       </c>
       <c r="E621" t="s">
@@ -26843,7 +27716,7 @@
       <c r="B622" t="s">
         <v>2394</v>
       </c>
-      <c r="D622" s="5">
+      <c r="D622" s="6">
         <v>402000049</v>
       </c>
       <c r="E622" t="s">
@@ -26872,7 +27745,7 @@
       <c r="B623" t="s">
         <v>2394</v>
       </c>
-      <c r="D623" s="5">
+      <c r="D623" s="6">
         <v>402000017</v>
       </c>
       <c r="E623" t="s">
@@ -26901,7 +27774,7 @@
       <c r="B624" t="s">
         <v>2394</v>
       </c>
-      <c r="D624" s="5">
+      <c r="D624" s="6">
         <v>402000023</v>
       </c>
       <c r="E624" t="s">
@@ -26923,14 +27796,14 @@
         <v>39915</v>
       </c>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:12">
       <c r="A625" t="s">
         <v>2411</v>
       </c>
       <c r="B625" t="s">
         <v>2394</v>
       </c>
-      <c r="D625" s="5">
+      <c r="D625" s="6">
         <v>402000037</v>
       </c>
       <c r="E625" t="s">
@@ -26952,7 +27825,7 @@
         <v>41791</v>
       </c>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" spans="1:12">
       <c r="A626" t="s">
         <v>2414</v>
       </c>
@@ -26978,7 +27851,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" spans="1:12">
       <c r="A627" t="s">
         <v>2417</v>
       </c>
@@ -27007,7 +27880,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:12">
       <c r="A628" t="s">
         <v>2422</v>
       </c>
@@ -27033,7 +27906,7 @@
         <v>42235</v>
       </c>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" spans="1:12">
       <c r="A629" t="s">
         <v>2426</v>
       </c>
@@ -27059,7 +27932,7 @@
         <v>42347</v>
       </c>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:12">
       <c r="A630" t="s">
         <v>2431</v>
       </c>
@@ -27082,7 +27955,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:12">
       <c r="A631" t="s">
         <v>2435</v>
       </c>
@@ -27105,7 +27978,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:12">
       <c r="A632" t="s">
         <v>2438</v>
       </c>
@@ -27128,7 +28001,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:12">
       <c r="A633" t="s">
         <v>2439</v>
       </c>
@@ -27151,7 +28024,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:12">
       <c r="A634" t="s">
         <v>2441</v>
       </c>
@@ -27174,7 +28047,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" spans="1:12">
       <c r="A635" t="s">
         <v>2445</v>
       </c>
@@ -27200,7 +28073,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:12">
       <c r="A636" t="s">
         <v>2451</v>
       </c>
@@ -27226,7 +28099,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="637" spans="1:11">
+    <row r="637" spans="1:12">
       <c r="A637" t="s">
         <v>2456</v>
       </c>
@@ -27252,7 +28125,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:12">
       <c r="A638" t="s">
         <v>2458</v>
       </c>
@@ -27278,7 +28151,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="639" spans="1:11">
+    <row r="639" spans="1:12">
       <c r="A639" t="s">
         <v>2462</v>
       </c>
@@ -27303,6 +28176,3251 @@
       <c r="K639" t="s">
         <v>2464</v>
       </c>
+    </row>
+    <row r="640" spans="1:12">
+      <c r="A640" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B640" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E640" s="7"/>
+      <c r="L640" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12">
+      <c r="A641" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B641" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E641" s="7"/>
+      <c r="L641" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12">
+      <c r="A642" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B642" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E642" s="7"/>
+      <c r="L642" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12">
+      <c r="A643" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B643" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E643" s="7"/>
+      <c r="L643" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12">
+      <c r="A644" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B644" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E644" s="7"/>
+      <c r="L644" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12">
+      <c r="A645" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B645" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E645" s="7"/>
+      <c r="L645" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12">
+      <c r="A646" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B646" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E646" s="7"/>
+      <c r="L646" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12">
+      <c r="A647" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B647" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E647" s="7"/>
+      <c r="L647" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12">
+      <c r="A648" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B648" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E648" s="7"/>
+      <c r="L648" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12">
+      <c r="A649" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B649" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E649" s="7"/>
+      <c r="L649" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12">
+      <c r="A650" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B650" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E650" s="7"/>
+      <c r="L650" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12">
+      <c r="A651" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B651" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E651" s="7"/>
+      <c r="L651" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12">
+      <c r="A652" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B652" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E652" s="7"/>
+      <c r="L652" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12">
+      <c r="A653" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B653" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E653" s="7"/>
+      <c r="L653" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12">
+      <c r="A654" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B654" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E654" s="7"/>
+      <c r="L654" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12">
+      <c r="A655" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B655" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E655" s="7"/>
+      <c r="L655" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12">
+      <c r="A656" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B656" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E656" s="7"/>
+      <c r="L656" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="657" spans="1:12">
+      <c r="A657" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B657" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E657" s="7"/>
+      <c r="L657" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="658" spans="1:12">
+      <c r="A658" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B658" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E658" s="7"/>
+      <c r="L658" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12">
+      <c r="A659" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B659" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E659" s="7"/>
+      <c r="L659" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12">
+      <c r="A660" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B660" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E660" s="7"/>
+      <c r="L660" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12">
+      <c r="A661" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B661" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E661" s="7"/>
+      <c r="L661" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="662" spans="1:12">
+      <c r="A662" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B662" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E662" s="7"/>
+      <c r="L662" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12">
+      <c r="A663" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B663" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E663" s="7"/>
+      <c r="L663" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12">
+      <c r="A664" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B664" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E664" s="7"/>
+      <c r="L664" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12">
+      <c r="A665" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B665" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E665" s="7"/>
+      <c r="L665" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12">
+      <c r="A666" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B666" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E666" s="7"/>
+      <c r="L666" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12">
+      <c r="A667" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B667" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E667" s="7"/>
+      <c r="L667" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12">
+      <c r="A668" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B668" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E668" s="7"/>
+      <c r="L668" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12">
+      <c r="A669" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B669" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E669" s="7"/>
+      <c r="L669" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12">
+      <c r="A670" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B670" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E670" s="7"/>
+      <c r="L670" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12">
+      <c r="A671" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B671" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E671" s="7"/>
+      <c r="L671" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12">
+      <c r="A672" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B672" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E672" s="7"/>
+      <c r="L672" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12">
+      <c r="A673" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B673" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E673" s="7"/>
+      <c r="L673" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12">
+      <c r="A674" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B674" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E674" s="7"/>
+      <c r="L674" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12">
+      <c r="A675" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B675" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E675" s="7"/>
+      <c r="L675" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12">
+      <c r="A676" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B676" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E676" s="7"/>
+      <c r="L676" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12">
+      <c r="A677" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B677" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E677" s="7"/>
+      <c r="L677" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12">
+      <c r="A678" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B678" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E678" s="7"/>
+      <c r="L678" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12">
+      <c r="A679" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B679" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E679" s="7"/>
+      <c r="L679" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12">
+      <c r="A680" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B680" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E680" s="7"/>
+      <c r="L680" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12">
+      <c r="A681" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B681" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E681" s="7"/>
+      <c r="L681" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12">
+      <c r="A682" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B682" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E682" s="7"/>
+      <c r="L682" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12">
+      <c r="A683" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B683" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E683" s="7"/>
+      <c r="L683" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12">
+      <c r="A684" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B684" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E684" s="7"/>
+      <c r="L684" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12">
+      <c r="A685" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B685" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E685" s="7"/>
+      <c r="L685" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12">
+      <c r="A686" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B686" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E686" s="7"/>
+      <c r="L686" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12">
+      <c r="A687" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B687" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E687" s="7"/>
+      <c r="L687" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12">
+      <c r="A688" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B688" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E688" s="7"/>
+      <c r="L688" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12">
+      <c r="A689" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B689" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E689" s="7"/>
+      <c r="L689" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12">
+      <c r="A690" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B690" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E690" s="7"/>
+      <c r="L690" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12">
+      <c r="A691" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B691" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E691" s="7"/>
+      <c r="L691" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12">
+      <c r="A692" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B692" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E692" s="7"/>
+      <c r="L692" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12">
+      <c r="A693" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B693" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E693" s="7"/>
+      <c r="L693" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12">
+      <c r="A694" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B694" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E694" s="7"/>
+      <c r="L694" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12">
+      <c r="A695" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B695" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E695" s="7"/>
+      <c r="L695" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12">
+      <c r="A696" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B696" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E696" s="7"/>
+      <c r="L696" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12">
+      <c r="A697" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B697" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E697" s="7"/>
+      <c r="L697" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12">
+      <c r="A698" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B698" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E698" s="7"/>
+      <c r="L698" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12">
+      <c r="A699" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B699" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E699" s="7"/>
+      <c r="L699" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12">
+      <c r="A700" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B700" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E700" s="7"/>
+      <c r="L700" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12">
+      <c r="A701" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B701" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E701" s="7"/>
+      <c r="L701" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12">
+      <c r="A702" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B702" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E702" s="7"/>
+      <c r="L702" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12">
+      <c r="A703" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B703" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E703" s="7"/>
+      <c r="L703" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12">
+      <c r="A704" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B704" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E704" s="7"/>
+      <c r="L704" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12">
+      <c r="A705" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B705" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E705" s="7"/>
+      <c r="L705" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12">
+      <c r="A706" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B706" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E706" s="7"/>
+      <c r="L706" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12">
+      <c r="A707" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B707" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E707" s="7"/>
+      <c r="L707" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12">
+      <c r="A708" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B708" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E708" s="7"/>
+      <c r="L708" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12">
+      <c r="A709" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B709" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E709" s="7"/>
+      <c r="L709" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12">
+      <c r="A710" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B710" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E710" s="7"/>
+      <c r="L710" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12">
+      <c r="A711" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B711" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E711" s="7"/>
+      <c r="L711" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12">
+      <c r="A712" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B712" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E712" s="7"/>
+      <c r="L712" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12">
+      <c r="A713" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B713" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E713" s="7"/>
+      <c r="L713" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12">
+      <c r="A714" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B714" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E714" s="7"/>
+      <c r="L714" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12">
+      <c r="A715" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B715" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E715" s="7"/>
+      <c r="L715" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12">
+      <c r="A716" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B716" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E716" s="7"/>
+      <c r="L716" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12">
+      <c r="A717" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B717" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E717" s="7"/>
+      <c r="L717" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12">
+      <c r="A718" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B718" t="s">
+        <v>2740</v>
+      </c>
+      <c r="E718" s="7"/>
+      <c r="L718" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12">
+      <c r="A719" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B719" t="s">
+        <v>2740</v>
+      </c>
+      <c r="E719" s="7"/>
+      <c r="L719" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12">
+      <c r="A720" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B720" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E720" s="7"/>
+      <c r="L720" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12">
+      <c r="A721" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B721" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E721" s="7"/>
+      <c r="L721" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12">
+      <c r="A722" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B722" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E722" s="7"/>
+      <c r="L722" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="723" spans="1:12">
+      <c r="A723" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B723" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E723" s="7"/>
+      <c r="L723" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="724" spans="1:12">
+      <c r="A724" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B724" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E724" s="7"/>
+      <c r="L724" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="725" spans="1:12">
+      <c r="A725" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B725" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E725" s="7"/>
+      <c r="L725" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12">
+      <c r="A726" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B726" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E726" s="7"/>
+      <c r="L726" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="727" spans="1:12">
+      <c r="A727" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B727" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E727" s="7"/>
+      <c r="L727" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="728" spans="1:12">
+      <c r="A728" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B728" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E728" s="7"/>
+      <c r="L728" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12">
+      <c r="A729" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B729" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E729" s="7"/>
+      <c r="L729" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="730" spans="1:12">
+      <c r="A730" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B730" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E730" s="7"/>
+      <c r="L730" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="731" spans="1:12">
+      <c r="A731" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B731" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E731" s="7"/>
+      <c r="L731" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="732" spans="1:12">
+      <c r="A732" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B732" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E732" s="7"/>
+      <c r="L732" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="733" spans="1:12">
+      <c r="A733" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B733" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E733" s="7"/>
+      <c r="L733" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="734" spans="1:12">
+      <c r="A734" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B734" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E734" s="7"/>
+      <c r="L734" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="735" spans="1:12">
+      <c r="A735" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B735" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E735" s="7"/>
+      <c r="L735" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12">
+      <c r="A736" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B736" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E736" s="7"/>
+      <c r="L736" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="737" spans="1:12">
+      <c r="A737" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B737" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E737" s="7"/>
+      <c r="L737" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="738" spans="1:12">
+      <c r="A738" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B738" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E738" s="7"/>
+      <c r="L738" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="739" spans="1:12">
+      <c r="A739" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B739" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E739" s="7"/>
+      <c r="L739" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="740" spans="1:12">
+      <c r="A740" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B740" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E740" s="7"/>
+      <c r="L740" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="741" spans="1:12">
+      <c r="A741" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B741" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E741" s="7"/>
+      <c r="L741" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="742" spans="1:12">
+      <c r="A742" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B742" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E742" s="7"/>
+      <c r="L742" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="743" spans="1:12">
+      <c r="A743" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B743" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E743" s="7"/>
+      <c r="L743" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="744" spans="1:12">
+      <c r="A744" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B744" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E744" s="7"/>
+      <c r="L744" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="745" spans="1:12">
+      <c r="A745" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B745" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E745" s="7"/>
+      <c r="L745" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="746" spans="1:12">
+      <c r="A746" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B746" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E746" s="7"/>
+      <c r="L746" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="747" spans="1:12">
+      <c r="A747" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B747" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E747" s="7"/>
+      <c r="L747" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="748" spans="1:12">
+      <c r="A748" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B748" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E748" s="7"/>
+      <c r="L748" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="749" spans="1:12">
+      <c r="A749" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B749" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E749" s="7"/>
+      <c r="L749" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="750" spans="1:12">
+      <c r="A750" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B750" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E750" s="7"/>
+      <c r="K750" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L750" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="751" spans="1:12">
+      <c r="A751" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E751" s="7"/>
+      <c r="K751" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L751" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="752" spans="1:12">
+      <c r="A752" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B752" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E752" s="7"/>
+      <c r="K752" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L752" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="753" spans="1:12">
+      <c r="A753" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B753" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E753" s="7"/>
+      <c r="K753" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L753" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="754" spans="1:12">
+      <c r="A754" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B754" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E754" s="7"/>
+      <c r="K754" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L754" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="755" spans="1:12">
+      <c r="A755" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B755" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E755" s="7"/>
+      <c r="K755" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L755" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="756" spans="1:12">
+      <c r="A756" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B756" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E756" s="7"/>
+      <c r="K756" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L756" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="757" spans="1:12">
+      <c r="A757" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B757" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E757" s="7"/>
+      <c r="K757" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L757" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12">
+      <c r="A758" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B758" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E758" s="7"/>
+      <c r="K758" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L758" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12">
+      <c r="A759" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B759" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E759" s="7"/>
+      <c r="K759" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L759" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="760" spans="1:12">
+      <c r="A760" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B760" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E760" s="7"/>
+      <c r="K760" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L760" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="761" spans="1:12">
+      <c r="A761" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B761" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E761" s="7"/>
+      <c r="K761" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L761" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12">
+      <c r="A762" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B762" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E762" s="7"/>
+      <c r="K762" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L762" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12">
+      <c r="A763" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B763" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E763" s="7"/>
+      <c r="K763" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L763" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12">
+      <c r="A764" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E764" s="7"/>
+      <c r="K764" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L764" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12">
+      <c r="A765" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B765" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E765" s="7"/>
+      <c r="K765" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L765" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12">
+      <c r="A766" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E766" s="7"/>
+      <c r="K766" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L766" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12">
+      <c r="A767" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B767" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E767" s="7"/>
+      <c r="K767" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L767" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12">
+      <c r="A768" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B768" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E768" s="7"/>
+      <c r="K768" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L768" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12">
+      <c r="A769" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B769" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E769" s="7"/>
+      <c r="K769" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L769" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12">
+      <c r="A770" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E770" s="7"/>
+      <c r="K770" t="s">
+        <v>2729</v>
+      </c>
+      <c r="L770" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12">
+      <c r="A771" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B771" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E771" s="7"/>
+      <c r="K771" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L771" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12">
+      <c r="A772" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B772" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E772" s="7"/>
+      <c r="K772" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L772" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="773" spans="1:12">
+      <c r="A773" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B773" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E773" s="7"/>
+      <c r="K773" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L773" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="774" spans="1:12">
+      <c r="A774" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B774" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E774" s="7"/>
+      <c r="K774" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L774" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12">
+      <c r="A775" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B775" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E775" s="7"/>
+      <c r="K775" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L775" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="776" spans="1:12">
+      <c r="A776" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B776" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E776" s="7"/>
+      <c r="K776" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L776" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="777" spans="1:12">
+      <c r="A777" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E777" s="7"/>
+      <c r="L777" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="778" spans="1:12">
+      <c r="A778" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E778" s="7"/>
+      <c r="K778" t="s">
+        <v>2729</v>
+      </c>
+      <c r="L778" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="779" spans="1:12">
+      <c r="A779" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B779" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E779" s="7"/>
+      <c r="K779" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L779" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="780" spans="1:12">
+      <c r="A780" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B780" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E780" s="7"/>
+      <c r="K780" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L780" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="781" spans="1:12">
+      <c r="A781" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B781" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E781" s="7"/>
+      <c r="K781" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L781" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="782" spans="1:12">
+      <c r="A782" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E782" s="7"/>
+      <c r="K782" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L782" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="783" spans="1:12">
+      <c r="A783" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E783" s="7"/>
+      <c r="K783" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L783" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="784" spans="1:12">
+      <c r="A784" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E784" s="7"/>
+      <c r="K784" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L784" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="785" spans="1:12">
+      <c r="A785" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E785" s="7"/>
+      <c r="K785" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L785" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="786" spans="1:12">
+      <c r="A786" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E786" s="7"/>
+      <c r="K786" t="s">
+        <v>2729</v>
+      </c>
+      <c r="L786" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="787" spans="1:12">
+      <c r="A787" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E787" s="7"/>
+      <c r="K787" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L787" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="788" spans="1:12">
+      <c r="A788" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E788" s="7"/>
+      <c r="K788" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L788" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="789" spans="1:12">
+      <c r="A789" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E789" s="7"/>
+      <c r="K789" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L789" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="790" spans="1:12">
+      <c r="A790" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E790" s="7"/>
+      <c r="K790" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L790" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="791" spans="1:12">
+      <c r="A791" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E791" s="7"/>
+      <c r="K791" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L791" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="792" spans="1:12">
+      <c r="A792" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E792" s="7"/>
+      <c r="K792" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L792" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="793" spans="1:12">
+      <c r="A793" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E793" s="7"/>
+      <c r="K793" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L793" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="794" spans="1:12">
+      <c r="A794" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E794" s="7"/>
+      <c r="K794" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L794" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="795" spans="1:12">
+      <c r="A795" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E795" s="7"/>
+      <c r="K795" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L795" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="796" spans="1:12">
+      <c r="A796" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B796" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E796" s="7"/>
+      <c r="K796" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L796" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12">
+      <c r="A797" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E797" s="7"/>
+      <c r="K797" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L797" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="798" spans="1:12">
+      <c r="A798" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B798" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E798" s="7"/>
+      <c r="K798" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L798" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="799" spans="1:12">
+      <c r="A799" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E799" s="7"/>
+      <c r="K799" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L799" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12">
+      <c r="A800" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E800" s="7"/>
+      <c r="K800" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L800" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12">
+      <c r="A801" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E801" s="7"/>
+      <c r="K801" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L801" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12">
+      <c r="A802" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E802" s="7"/>
+      <c r="K802" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L802" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12">
+      <c r="A803" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E803" s="7"/>
+      <c r="K803" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L803" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12">
+      <c r="A804" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E804" s="7"/>
+      <c r="K804" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L804" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12">
+      <c r="A805" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E805" s="7"/>
+      <c r="K805" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L805" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12">
+      <c r="A806" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E806" s="7"/>
+      <c r="K806" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L806" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12">
+      <c r="A807" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E807" s="7"/>
+      <c r="K807" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L807" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12">
+      <c r="A808" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B808" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E808" s="7"/>
+      <c r="K808" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L808" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12">
+      <c r="A809" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B809" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E809" s="7"/>
+      <c r="K809" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L809" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12">
+      <c r="A810" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B810" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E810" s="7"/>
+      <c r="K810" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L810" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12">
+      <c r="A811" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B811" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E811" s="7"/>
+      <c r="K811" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L811" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12">
+      <c r="A812" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B812" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E812" s="7"/>
+      <c r="K812" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L812" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12">
+      <c r="A813" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E813" s="7"/>
+      <c r="K813" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L813" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12">
+      <c r="A814" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B814" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E814" s="7"/>
+      <c r="K814" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L814" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12">
+      <c r="A815" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B815" t="s">
+        <v>2746</v>
+      </c>
+      <c r="E815" s="7"/>
+      <c r="K815" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L815" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12">
+      <c r="A816" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B816" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E816" s="7"/>
+      <c r="K816" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L816" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12">
+      <c r="A817" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B817" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E817" s="7"/>
+      <c r="K817" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L817" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12">
+      <c r="A818" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B818" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E818" s="7"/>
+      <c r="K818" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L818" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12">
+      <c r="A819" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B819" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E819" s="7"/>
+      <c r="K819" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L819" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12">
+      <c r="A820" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B820" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E820" s="7"/>
+      <c r="K820" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L820" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12">
+      <c r="A821" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B821" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E821" s="7"/>
+      <c r="K821" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L821" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="822" spans="1:12">
+      <c r="A822" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B822" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E822" s="7"/>
+      <c r="K822" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L822" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="823" spans="1:12">
+      <c r="A823" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B823" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E823" s="7"/>
+      <c r="K823" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L823" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="824" spans="1:12">
+      <c r="A824" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E824" s="7"/>
+      <c r="K824" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L824" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12">
+      <c r="A825" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E825" s="7"/>
+      <c r="K825" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L825" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="826" spans="1:12">
+      <c r="A826" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E826" s="7"/>
+      <c r="K826" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L826" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12">
+      <c r="A827" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E827" s="7"/>
+      <c r="K827" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L827" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="828" spans="1:12">
+      <c r="A828" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B828" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E828" s="7"/>
+      <c r="K828" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L828" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="829" spans="1:12">
+      <c r="A829" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E829" s="7"/>
+      <c r="K829" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L829" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="830" spans="1:12">
+      <c r="A830" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E830" s="7"/>
+      <c r="K830" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L830" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="831" spans="1:12">
+      <c r="A831" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B831" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E831" s="7"/>
+      <c r="K831" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L831" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="832" spans="1:12">
+      <c r="A832" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E832" s="7"/>
+      <c r="K832" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L832" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="833" spans="1:12">
+      <c r="A833" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B833" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E833" s="7"/>
+      <c r="K833" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L833" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="834" spans="1:12">
+      <c r="A834" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E834" s="7"/>
+      <c r="K834" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L834" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="835" spans="1:12">
+      <c r="A835" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B835" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E835" s="7"/>
+      <c r="K835" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L835" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="836" spans="1:12">
+      <c r="A836" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B836" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E836" s="7"/>
+      <c r="K836" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L836" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="837" spans="1:12">
+      <c r="A837" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B837" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E837" s="7"/>
+      <c r="K837" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L837" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="838" spans="1:12">
+      <c r="A838" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B838" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E838" s="7"/>
+      <c r="K838" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L838" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="839" spans="1:12">
+      <c r="A839" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B839" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E839" s="7"/>
+      <c r="K839" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L839" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="840" spans="1:12">
+      <c r="A840" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E840" s="7"/>
+      <c r="K840" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L840" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="841" spans="1:12">
+      <c r="A841" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E841" s="7"/>
+      <c r="K841" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L841" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="842" spans="1:12">
+      <c r="A842" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E842" s="7"/>
+      <c r="K842" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L842" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="843" spans="1:12">
+      <c r="A843" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B843" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E843" s="7"/>
+      <c r="K843" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L843" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="844" spans="1:12">
+      <c r="A844" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E844" s="7"/>
+      <c r="K844" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L844" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="845" spans="1:12">
+      <c r="A845" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B845" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E845" s="7"/>
+      <c r="K845" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L845" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="846" spans="1:12">
+      <c r="A846" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B846" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E846" s="7"/>
+      <c r="K846" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L846" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="847" spans="1:12">
+      <c r="A847" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B847" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E847" s="7"/>
+      <c r="K847" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L847" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="848" spans="1:12">
+      <c r="A848" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B848" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E848" s="7"/>
+      <c r="K848" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L848" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="849" spans="1:12">
+      <c r="A849" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B849" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E849" s="7"/>
+      <c r="K849" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L849" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="850" spans="1:12">
+      <c r="A850" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B850" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E850" s="7"/>
+      <c r="K850" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L850" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="851" spans="1:12">
+      <c r="A851" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E851" s="7"/>
+      <c r="K851" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L851" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="852" spans="1:12">
+      <c r="A852" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B852" t="s">
+        <v>2740</v>
+      </c>
+      <c r="E852" s="7"/>
+      <c r="K852" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L852" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="853" spans="1:12">
+      <c r="A853" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B853" t="s">
+        <v>2740</v>
+      </c>
+      <c r="E853" s="7"/>
+      <c r="K853" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L853" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="854" spans="1:12">
+      <c r="A854" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B854" t="s">
+        <v>2740</v>
+      </c>
+      <c r="E854" s="7"/>
+      <c r="K854" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L854" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="855" spans="1:12">
+      <c r="A855" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B855" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E855" s="7"/>
+      <c r="K855" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L855" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="856" spans="1:12">
+      <c r="A856" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B856" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E856" s="7"/>
+      <c r="K856" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L856" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="857" spans="1:12">
+      <c r="A857" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B857" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E857" s="7"/>
+      <c r="K857" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L857" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="858" spans="1:12">
+      <c r="A858" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E858" s="7"/>
+      <c r="L858" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="859" spans="1:12">
+      <c r="A859" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E859" s="7"/>
+      <c r="K859" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L859" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="860" spans="1:12">
+      <c r="A860" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B860" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E860" s="7"/>
+      <c r="K860" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L860" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="861" spans="1:12">
+      <c r="A861" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B861" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E861" s="7"/>
+      <c r="L861" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="862" spans="1:12">
+      <c r="A862" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B862" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E862" s="7"/>
+      <c r="L862" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="863" spans="1:12">
+      <c r="A863" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B863" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E863" s="7"/>
+      <c r="L863" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="864" spans="1:12">
+      <c r="A864" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B864" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E864" s="7"/>
+      <c r="L864" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="865" spans="1:12">
+      <c r="A865" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E865" s="7"/>
+      <c r="L865" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="866" spans="1:12">
+      <c r="A866" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E866" s="7"/>
+      <c r="L866" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="867" spans="1:12">
+      <c r="A867" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B867" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E867" s="7"/>
+      <c r="L867" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="868" spans="1:12">
+      <c r="A868" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B868" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E868" s="7"/>
+      <c r="L868" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="869" spans="1:12">
+      <c r="A869" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B869" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E869" s="7"/>
+      <c r="L869" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="870" spans="1:12">
+      <c r="A870" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B870" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E870" s="7"/>
+      <c r="L870" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="871" spans="1:12">
+      <c r="A871" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B871" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E871" s="7"/>
+      <c r="L871" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="872" spans="1:12">
+      <c r="A872" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B872" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E872" s="7"/>
+      <c r="L872" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="873" spans="1:12">
+      <c r="A873" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B873" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E873" s="7"/>
+      <c r="L873" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="874" spans="1:12">
+      <c r="A874" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B874" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E874" s="7"/>
+      <c r="L874" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="875" spans="1:12">
+      <c r="A875" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B875" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E875" s="7"/>
+      <c r="L875" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="876" spans="1:12">
+      <c r="A876" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B876" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E876" s="7"/>
+      <c r="L876" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="877" spans="1:12">
+      <c r="A877" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B877" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E877" s="7"/>
+      <c r="L877" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="878" spans="1:12">
+      <c r="A878" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E878" s="7"/>
+      <c r="F878" t="s">
+        <v>2716</v>
+      </c>
+      <c r="K878" t="s">
+        <v>2721</v>
+      </c>
+      <c r="L878" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="879" spans="1:12">
+      <c r="A879" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E879" s="7" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F879" t="s">
+        <v>2717</v>
+      </c>
+      <c r="K879" t="s">
+        <v>2722</v>
+      </c>
+      <c r="L879" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="880" spans="1:12">
+      <c r="A880" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E880" s="7">
+        <v>847243</v>
+      </c>
+      <c r="F880" t="s">
+        <v>2718</v>
+      </c>
+      <c r="G880" t="s">
+        <v>2720</v>
+      </c>
+      <c r="K880" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L880" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="881" spans="1:12">
+      <c r="A881" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E881" s="7">
+        <v>201502</v>
+      </c>
+      <c r="F881" t="s">
+        <v>2719</v>
+      </c>
+      <c r="K881" t="s">
+        <v>2724</v>
+      </c>
+      <c r="L881" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="882" spans="1:12">
+      <c r="A882" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E882" s="7" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F882" t="s">
+        <v>2717</v>
+      </c>
+      <c r="K882" t="s">
+        <v>2725</v>
+      </c>
+      <c r="L882" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="886" spans="1:12">
+      <c r="D886"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
